--- a/logs/General Log/General-Log.xlsx
+++ b/logs/General Log/General-Log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,26 +464,16 @@
           <t>File</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>API Response Code</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>API Response</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-09-03 11:20:33</t>
+          <t>2024-09-03 12:04:53</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ORM-0515833</t>
+          <t>ORM-0515835</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,18 +496,16 @@
           <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-09-03 11:20:35</t>
+          <t>2024-09-03 12:04:54</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ORM-0515834</t>
+          <t>ORM-0515836</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,18 +528,16 @@
           <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-09-03 11:22:58</t>
+          <t>2024-09-03 12:07:11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORM-0515833</t>
+          <t>ORM-0515835</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -574,18 +560,16 @@
           <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-09-03 11:23:00</t>
+          <t>2024-09-03 12:07:13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ORM-0515834</t>
+          <t>ORM-0515836</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,292 +590,6 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024-09-03 11:23:40</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ORM-0515833</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Z195631098</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>C18H19CL2N5OS</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Duplicate</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2024-09-03 11:23:41</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ORM-0515834</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Z2754556176</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>C17H28N4O2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Duplicate</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2024-09-03 11:26:39</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ORM-0515833</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Z195631098</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>C18H19CL2N5OS</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Duplicate</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2024-09-03 11:26:41</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ORM-0515834</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Z2754556176</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>C17H28N4O2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Duplicate</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2024-09-03 11:31:52</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ORM-0515833</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Z195631098</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>C18H19CL2N5OS</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Duplicate</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2024-09-03 11:31:54</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ORM-0515834</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Z2754556176</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>C17H28N4O2</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Duplicate</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2024-09-03 11:39:47</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ORM-0515835</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Z195631098</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>C18H19CL2N5OS</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>201</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6cb517a22b309d98a6d3d"},"data":{"type":"material","id":"asset:66d6cb517a22b309d98a6d3d","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6cb517a22b309d98a6d3d"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66d6cb517a22b309d98a6d3d","id":"asset:66d6cb517a22b309d98a6d3d","eid":"asset:66d6cb517a22b309d98a6d3d","name":"ORM-0515835","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-09-03T08:39:46.190Z","editedAt":"2024-09-03T08:39:46.190Z","type":"asset","digest":"88698125","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515835"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66d6cb527a22b309d98a6d3e","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66d6cb527a22b309d98a6d3e"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6cb517a22b309d98a6d3d/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66d6cb517a22b309d98a6d3d"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:66d6cb517a22b309d98a6d3d","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6cb517a22b309d98a6d3d/drawing?format=cdxml"},"attributes":{"id":"asset:66d6cb517a22b309d98a6d3d","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:66d6cb527a22b309d98a6d3e","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66d6cb527a22b309d98a6d3e"},"attributes":{"type":"batch","eid":"batch:66d6cb527a22b309d98a6d3e","name":"ORM-0515835-001","digest":"82175204","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515835-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-03T08:39:46.570Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"25802876","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2024-09-03 11:39:49</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ORM-0515836</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Z2754556176</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>C17H28N4O2</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>201</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6cb55ebc08a375f42f43c"},"data":{"type":"material","id":"asset:66d6cb55ebc08a375f42f43c","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6cb55ebc08a375f42f43c"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66d6cb55ebc08a375f42f43c","id":"asset:66d6cb55ebc08a375f42f43c","eid":"asset:66d6cb55ebc08a375f42f43c","name":"ORM-0515836","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-09-03T08:39:49.363Z","editedAt":"2024-09-03T08:39:49.363Z","type":"asset","digest":"10306431","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0515836"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66d6cb55ebc08a375f42f43d","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66d6cb55ebc08a375f42f43d"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6cb55ebc08a375f42f43c/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66d6cb55ebc08a375f42f43c"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:66d6cb55ebc08a375f42f43c","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6cb55ebc08a375f42f43c/drawing?format=cdxml"},"attributes":{"id":"asset:66d6cb55ebc08a375f42f43c","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"25802876","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}},{"type":"material","id":"batch:66d6cb55ebc08a375f42f43d","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66d6cb55ebc08a375f42f43d"},"attributes":{"type":"batch","eid":"batch:66d6cb55ebc08a375f42f43d","name":"ORM-0515836-001","digest":"94585640","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Name":{"value":"ORM-0515836-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-03T08:39:49.617Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}}]}</t>
         </is>
       </c>
     </row>

--- a/logs/General Log/General-Log.xlsx
+++ b/logs/General Log/General-Log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,6 +593,70 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-09-03 12:18:17</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ORM-0515835</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-09-03 12:18:18</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ORM-0515836</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/General Log/General-Log.xlsx
+++ b/logs/General Log/General-Log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>File</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>API Response Code</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>API Response</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,6 +506,8 @@
           <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -528,6 +540,8 @@
           <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,6 +574,8 @@
           <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -592,6 +608,8 @@
           <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -624,6 +642,8 @@
           <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -656,6 +676,236 @@
           <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-09-03 12:37:45</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ORM-0515837</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>201</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6d8e8595fd04220b63de5"},"data":{"type":"material","id":"asset:66d6d8e8595fd04220b63de5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6d8e8595fd04220b63de5"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66d6d8e8595fd04220b63de5","id":"asset:66d6d8e8595fd04220b63de5","eid":"asset:66d6d8e8595fd04220b63de5","name":"ORM-0515837","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-09-03T09:37:44.447Z","editedAt":"2024-09-03T09:37:44.447Z","type":"asset","digest":"79440223","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515837"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66d6d8e8595fd04220b63de6","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66d6d8e8595fd04220b63de6"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6d8e8595fd04220b63de5/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66d6d8e8595fd04220b63de5"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:66d6d8e8595fd04220b63de6","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66d6d8e8595fd04220b63de6"},"attributes":{"type":"batch","eid":"batch:66d6d8e8595fd04220b63de6","name":"ORM-0515837-001","digest":"77933236","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515837-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-03T09:37:44.782Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"75775136","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}},{"type":"materialDrawing","id":"asset:66d6d8e8595fd04220b63de5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6d8e8595fd04220b63de5/drawing?format=cdxml"},"attributes":{"id":"asset:66d6d8e8595fd04220b63de5","type":"CHEMICAL_DRAWING"}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-09-03 12:37:48</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ORM-0515838</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>201</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6d8eb7a22b309d98a6d46"},"data":{"type":"material","id":"asset:66d6d8eb7a22b309d98a6d46","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6d8eb7a22b309d98a6d46"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66d6d8eb7a22b309d98a6d46","id":"asset:66d6d8eb7a22b309d98a6d46","eid":"asset:66d6d8eb7a22b309d98a6d46","name":"ORM-0515838","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-09-03T09:37:47.462Z","editedAt":"2024-09-03T09:37:47.462Z","type":"asset","digest":"37399418","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0515838"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66d6d8eb7a22b309d98a6d47","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66d6d8eb7a22b309d98a6d47"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6d8eb7a22b309d98a6d46/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66d6d8eb7a22b309d98a6d46"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:66d6d8eb7a22b309d98a6d47","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66d6d8eb7a22b309d98a6d47"},"attributes":{"type":"batch","eid":"batch:66d6d8eb7a22b309d98a6d47","name":"ORM-0515838-001","digest":"56032431","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Name":{"value":"ORM-0515838-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-03T09:37:47.734Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:66d6d8eb7a22b309d98a6d46","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6d8eb7a22b309d98a6d46/drawing?format=cdxml"},"attributes":{"id":"asset:66d6d8eb7a22b309d98a6d46","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"75775136","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-09-03 15:02:27</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ORM-0515839</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>201</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6fad1595fd04220b63dfd"},"data":{"type":"material","id":"asset:66d6fad1595fd04220b63dfd","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6fad1595fd04220b63dfd"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66d6fad1595fd04220b63dfd","id":"asset:66d6fad1595fd04220b63dfd","eid":"asset:66d6fad1595fd04220b63dfd","name":"ORM-0515839","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-09-03T12:02:25.814Z","editedAt":"2024-09-03T12:02:25.814Z","type":"asset","digest":"12126347","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515839"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66d6fad2595fd04220b63dfe","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66d6fad2595fd04220b63dfe"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6fad1595fd04220b63dfd/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66d6fad1595fd04220b63dfd"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:66d6fad2595fd04220b63dfe","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66d6fad2595fd04220b63dfe"},"attributes":{"type":"batch","eid":"batch:66d6fad2595fd04220b63dfe","name":"ORM-0515839-001","digest":"95336380","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515839-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-03T12:02:26.460Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:66d6fad1595fd04220b63dfd","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6fad1595fd04220b63dfd/drawing?format=cdxml"},"attributes":{"id":"asset:66d6fad1595fd04220b63dfd","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"16793537","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-09-03 15:02:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ORM-0515840</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>201</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6fad5ebc08a375f42f460"},"data":{"type":"material","id":"asset:66d6fad5ebc08a375f42f460","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6fad5ebc08a375f42f460"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66d6fad5ebc08a375f42f460","id":"asset:66d6fad5ebc08a375f42f460","eid":"asset:66d6fad5ebc08a375f42f460","name":"ORM-0515840","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-09-03T12:02:30.194Z","editedAt":"2024-09-03T12:02:30.194Z","type":"asset","digest":"51160166","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0515840"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66d6fad6ebc08a375f42f461","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66d6fad6ebc08a375f42f461"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6fad5ebc08a375f42f460/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66d6fad5ebc08a375f42f460"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:66d6fad5ebc08a375f42f460","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66d6fad5ebc08a375f42f460/drawing?format=cdxml"},"attributes":{"id":"asset:66d6fad5ebc08a375f42f460","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:66d6fad6ebc08a375f42f461","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66d6fad6ebc08a375f42f461"},"attributes":{"type":"batch","eid":"batch:66d6fad6ebc08a375f42f461","name":"ORM-0515840-001","digest":"49770522","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Name":{"value":"ORM-0515840-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-03T12:02:30.513Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"16793537","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-09-03 15:06:59</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ORM-0515839</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-09-03 15:07:01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ORM-0515840</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/logs/General Log/General-Log.xlsx
+++ b/logs/General Log/General-Log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,6 +907,770 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:12:50</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ORM-0515839</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:12:51</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ORM-0515840</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:13:29</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ORM-0515839</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:13:31</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ORM-0515840</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:15:05</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ORM-0515839</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:15:07</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ORM-0515840</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:16:21</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ORM-0515848</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>201</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c6d5b10e4653161b72f1"},"data":{"type":"material","id":"asset:66f3c6d5b10e4653161b72f1","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c6d5b10e4653161b72f1"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66f3c6d5b10e4653161b72f1","id":"asset:66f3c6d5b10e4653161b72f1","eid":"asset:66f3c6d5b10e4653161b72f1","name":"ORM-0515848","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-09-25T08:16:21.164Z","editedAt":"2024-09-25T08:16:21.164Z","type":"asset","digest":"38834240","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515848"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66f3c6d5b10e4653161b72f2","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3c6d5b10e4653161b72f2"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c6d5b10e4653161b72f1/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66f3c6d5b10e4653161b72f1"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:66f3c6d5b10e4653161b72f2","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3c6d5b10e4653161b72f2"},"attributes":{"type":"batch","eid":"batch:66f3c6d5b10e4653161b72f2","name":"ORM-0515848-001","digest":"48077144","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515848-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-25T08:16:21.480Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"78459056","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}},{"type":"materialDrawing","id":"asset:66f3c6d5b10e4653161b72f1","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c6d5b10e4653161b72f1/drawing?format=cdxml"},"attributes":{"id":"asset:66f3c6d5b10e4653161b72f1","type":"CHEMICAL_DRAWING"}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:16:24</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ORM-0515849</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>201</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c6d7a01482132101b337"},"data":{"type":"material","id":"asset:66f3c6d7a01482132101b337","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c6d7a01482132101b337"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66f3c6d7a01482132101b337","id":"asset:66f3c6d7a01482132101b337","eid":"asset:66f3c6d7a01482132101b337","name":"ORM-0515849","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-09-25T08:16:23.917Z","editedAt":"2024-09-25T08:16:23.917Z","type":"asset","digest":"39131108","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0515849"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66f3c6d8a01482132101b338","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3c6d8a01482132101b338"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c6d7a01482132101b337/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66f3c6d7a01482132101b337"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:66f3c6d8a01482132101b338","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3c6d8a01482132101b338"},"attributes":{"type":"batch","eid":"batch:66f3c6d8a01482132101b338","name":"ORM-0515849-001","digest":"86043289","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Name":{"value":"ORM-0515849-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-25T08:16:24.220Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"78459056","fields":{}}},{"type":"materialDrawing","id":"asset:66f3c6d7a01482132101b337","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c6d7a01482132101b337/drawing?format=cdxml"},"attributes":{"id":"asset:66f3c6d7a01482132101b337","type":"CHEMICAL_DRAWING"}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:22:12</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ORM-0515850</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>201</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c833a01482132101b347"},"data":{"type":"material","id":"asset:66f3c833a01482132101b347","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c833a01482132101b347"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66f3c833a01482132101b347","id":"asset:66f3c833a01482132101b347","eid":"asset:66f3c833a01482132101b347","name":"ORM-0515850","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-09-25T08:22:11.916Z","editedAt":"2024-09-25T08:22:11.916Z","type":"asset","digest":"51238311","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515850"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66f3c834a01482132101b348","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3c834a01482132101b348"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c833a01482132101b347/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66f3c833a01482132101b347"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:66f3c833a01482132101b347","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c833a01482132101b347/drawing?format=cdxml"},"attributes":{"id":"asset:66f3c833a01482132101b347","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:66f3c834a01482132101b348","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3c834a01482132101b348"},"attributes":{"type":"batch","eid":"batch:66f3c834a01482132101b348","name":"ORM-0515850-001","digest":"16964069","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515850-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-25T08:22:12.229Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"61526003","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:22:15</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ORM-0515851</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>201</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c837399ff04b78d3b950"},"data":{"type":"material","id":"asset:66f3c837399ff04b78d3b950","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c837399ff04b78d3b950"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66f3c837399ff04b78d3b950","id":"asset:66f3c837399ff04b78d3b950","eid":"asset:66f3c837399ff04b78d3b950","name":"ORM-0515851","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-09-25T08:22:15.127Z","editedAt":"2024-09-25T08:22:15.127Z","type":"asset","digest":"76371280","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0515851"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66f3c837399ff04b78d3b951","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3c837399ff04b78d3b951"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c837399ff04b78d3b950/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66f3c837399ff04b78d3b950"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:66f3c837399ff04b78d3b951","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3c837399ff04b78d3b951"},"attributes":{"type":"batch","eid":"batch:66f3c837399ff04b78d3b951","name":"ORM-0515851-001","digest":"65911264","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Name":{"value":"ORM-0515851-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-25T08:22:15.310Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:66f3c837399ff04b78d3b950","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c837399ff04b78d3b950/drawing?format=cdxml"},"attributes":{"id":"asset:66f3c837399ff04b78d3b950","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"61526003","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:25:15</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ORM-0515852</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>201</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c8eaccf303112a9a6319"},"data":{"type":"material","id":"asset:66f3c8eaccf303112a9a6319","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c8eaccf303112a9a6319"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66f3c8eaccf303112a9a6319","id":"asset:66f3c8eaccf303112a9a6319","eid":"asset:66f3c8eaccf303112a9a6319","name":"ORM-0515852","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-09-25T08:25:14.449Z","editedAt":"2024-09-25T08:25:14.449Z","type":"asset","digest":"50162357","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515852"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66f3c8eaccf303112a9a631a","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3c8eaccf303112a9a631a"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c8eaccf303112a9a6319/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66f3c8eaccf303112a9a6319"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:66f3c8eaccf303112a9a631a","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3c8eaccf303112a9a631a"},"attributes":{"type":"batch","eid":"batch:66f3c8eaccf303112a9a631a","name":"ORM-0515852-001","digest":"94979605","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515852-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-25T08:25:14.924Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"48247138","fields":{}}},{"type":"materialDrawing","id":"asset:66f3c8eaccf303112a9a6319","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c8eaccf303112a9a6319/drawing?format=cdxml"},"attributes":{"id":"asset:66f3c8eaccf303112a9a6319","type":"CHEMICAL_DRAWING"}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:25:18</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ORM-0515853</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>201</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c8ed8ac1f915a4ada772"},"data":{"type":"material","id":"asset:66f3c8ed8ac1f915a4ada772","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c8ed8ac1f915a4ada772"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66f3c8ed8ac1f915a4ada772","id":"asset:66f3c8ed8ac1f915a4ada772","eid":"asset:66f3c8ed8ac1f915a4ada772","name":"ORM-0515853","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-09-25T08:25:17.401Z","editedAt":"2024-09-25T08:25:17.401Z","type":"asset","digest":"27686644","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0515853"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66f3c8ed8ac1f915a4ada773","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3c8ed8ac1f915a4ada773"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c8ed8ac1f915a4ada772/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66f3c8ed8ac1f915a4ada772"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:66f3c8ed8ac1f915a4ada773","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3c8ed8ac1f915a4ada773"},"attributes":{"type":"batch","eid":"batch:66f3c8ed8ac1f915a4ada773","name":"ORM-0515853-001","digest":"90612978","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Name":{"value":"ORM-0515853-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-25T08:25:17.893Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:66f3c8ed8ac1f915a4ada772","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c8ed8ac1f915a4ada772/drawing?format=cdxml"},"attributes":{"id":"asset:66f3c8ed8ac1f915a4ada772","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"48247138","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:29:52</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ORM-0515854</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>201</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c9ff399ff04b78d3b952"},"data":{"type":"material","id":"asset:66f3c9ff399ff04b78d3b952","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c9ff399ff04b78d3b952"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66f3c9ff399ff04b78d3b952","id":"asset:66f3c9ff399ff04b78d3b952","eid":"asset:66f3c9ff399ff04b78d3b952","name":"ORM-0515854","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-09-25T08:29:51.259Z","editedAt":"2024-09-25T08:29:51.259Z","type":"asset","digest":"61891900","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515854"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66f3c9ff399ff04b78d3b953","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3c9ff399ff04b78d3b953"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c9ff399ff04b78d3b952/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66f3c9ff399ff04b78d3b952"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:66f3c9ff399ff04b78d3b953","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3c9ff399ff04b78d3b953"},"attributes":{"type":"batch","eid":"batch:66f3c9ff399ff04b78d3b953","name":"ORM-0515854-001","digest":"74433293","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515854-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-25T08:29:51.916Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"26314572","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}},{"type":"materialDrawing","id":"asset:66f3c9ff399ff04b78d3b952","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3c9ff399ff04b78d3b952/drawing?format=cdxml"},"attributes":{"id":"asset:66f3c9ff399ff04b78d3b952","type":"CHEMICAL_DRAWING"}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:29:55</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ORM-0515855</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>201</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3ca02399ff04b78d3b954"},"data":{"type":"material","id":"asset:66f3ca02399ff04b78d3b954","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3ca02399ff04b78d3b954"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66f3ca02399ff04b78d3b954","id":"asset:66f3ca02399ff04b78d3b954","eid":"asset:66f3ca02399ff04b78d3b954","name":"ORM-0515855","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-09-25T08:29:54.458Z","editedAt":"2024-09-25T08:29:54.458Z","type":"asset","digest":"83080449","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0515855"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66f3ca02399ff04b78d3b955","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3ca02399ff04b78d3b955"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3ca02399ff04b78d3b954/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66f3ca02399ff04b78d3b954"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:66f3ca02399ff04b78d3b954","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3ca02399ff04b78d3b954/drawing?format=cdxml"},"attributes":{"id":"asset:66f3ca02399ff04b78d3b954","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:66f3ca02399ff04b78d3b955","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3ca02399ff04b78d3b955"},"attributes":{"type":"batch","eid":"batch:66f3ca02399ff04b78d3b955","name":"ORM-0515855-001","digest":"99076106","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Name":{"value":"ORM-0515855-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-25T08:29:54.923Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"26314572","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:31:32</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ORM-0515856</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>201</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3ca63399ff04b78d3b956"},"data":{"type":"material","id":"asset:66f3ca63399ff04b78d3b956","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3ca63399ff04b78d3b956"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66f3ca63399ff04b78d3b956","id":"asset:66f3ca63399ff04b78d3b956","eid":"asset:66f3ca63399ff04b78d3b956","name":"ORM-0515856","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-09-25T08:31:31.876Z","editedAt":"2024-09-25T08:31:31.876Z","type":"asset","digest":"31175883","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515856"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66f3ca64399ff04b78d3b957","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3ca64399ff04b78d3b957"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3ca63399ff04b78d3b956/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66f3ca63399ff04b78d3b956"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:66f3ca64399ff04b78d3b957","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3ca64399ff04b78d3b957"},"attributes":{"type":"batch","eid":"batch:66f3ca64399ff04b78d3b957","name":"ORM-0515856-001","digest":"53712521","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515856-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-25T08:31:32.093Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:66f3ca63399ff04b78d3b956","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3ca63399ff04b78d3b956/drawing?format=cdxml"},"attributes":{"id":"asset:66f3ca63399ff04b78d3b956","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"27915298","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:31:35</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ORM-0515857</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>201</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3ca66b10e4653161b7309"},"data":{"type":"material","id":"asset:66f3ca66b10e4653161b7309","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3ca66b10e4653161b7309"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66f3ca66b10e4653161b7309","id":"asset:66f3ca66b10e4653161b7309","eid":"asset:66f3ca66b10e4653161b7309","name":"ORM-0515857","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-09-25T08:31:34.474Z","editedAt":"2024-09-25T08:31:34.474Z","type":"asset","digest":"40461342","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0515857"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66f3ca66b10e4653161b730a","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3ca66b10e4653161b730a"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3ca66b10e4653161b7309/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66f3ca66b10e4653161b7309"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:66f3ca66b10e4653161b730a","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3ca66b10e4653161b730a"},"attributes":{"type":"batch","eid":"batch:66f3ca66b10e4653161b730a","name":"ORM-0515857-001","digest":"70452462","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Name":{"value":"ORM-0515857-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-25T08:31:34.908Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:66f3ca66b10e4653161b7309","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3ca66b10e4653161b7309/drawing?format=cdxml"},"attributes":{"id":"asset:66f3ca66b10e4653161b7309","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"27915298","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:35:05</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ORM-0515858</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>201</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3cb38399ff04b78d3b95a"},"data":{"type":"material","id":"asset:66f3cb38399ff04b78d3b95a","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3cb38399ff04b78d3b95a"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66f3cb38399ff04b78d3b95a","id":"asset:66f3cb38399ff04b78d3b95a","eid":"asset:66f3cb38399ff04b78d3b95a","name":"ORM-0515858","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-09-25T08:35:04.906Z","editedAt":"2024-09-25T08:35:04.906Z","type":"asset","digest":"76671961","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515858"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66f3cb39399ff04b78d3b95b","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3cb39399ff04b78d3b95b"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3cb38399ff04b78d3b95a/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66f3cb38399ff04b78d3b95a"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:66f3cb39399ff04b78d3b95b","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3cb39399ff04b78d3b95b"},"attributes":{"type":"batch","eid":"batch:66f3cb39399ff04b78d3b95b","name":"ORM-0515858-001","digest":"25909751","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515858-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-25T08:35:05.166Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"25407789","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}},{"type":"materialDrawing","id":"asset:66f3cb38399ff04b78d3b95a","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3cb38399ff04b78d3b95a/drawing?format=cdxml"},"attributes":{"id":"asset:66f3cb38399ff04b78d3b95a","type":"CHEMICAL_DRAWING"}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:35:08</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ORM-0515859</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>201</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3cb3b399ff04b78d3b95c"},"data":{"type":"material","id":"asset:66f3cb3b399ff04b78d3b95c","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3cb3b399ff04b78d3b95c"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66f3cb3b399ff04b78d3b95c","id":"asset:66f3cb3b399ff04b78d3b95c","eid":"asset:66f3cb3b399ff04b78d3b95c","name":"ORM-0515859","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-09-25T08:35:07.478Z","editedAt":"2024-09-25T08:35:07.478Z","type":"asset","digest":"12743630","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0515859"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66f3cb3b399ff04b78d3b95d","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3cb3b399ff04b78d3b95d"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3cb3b399ff04b78d3b95c/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66f3cb3b399ff04b78d3b95c"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:66f3cb3b399ff04b78d3b95c","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3cb3b399ff04b78d3b95c/drawing?format=cdxml"},"attributes":{"id":"asset:66f3cb3b399ff04b78d3b95c","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:66f3cb3b399ff04b78d3b95d","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3cb3b399ff04b78d3b95d"},"attributes":{"type":"batch","eid":"batch:66f3cb3b399ff04b78d3b95d","name":"ORM-0515859-001","digest":"43866544","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Name":{"value":"ORM-0515859-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-25T08:35:07.911Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"25407789","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:37:29</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ORM-0515860</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>201</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3cbc8b10e4653161b730b"},"data":{"type":"material","id":"asset:66f3cbc8b10e4653161b730b","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3cbc8b10e4653161b730b"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66f3cbc8b10e4653161b730b","id":"asset:66f3cbc8b10e4653161b730b","eid":"asset:66f3cbc8b10e4653161b730b","name":"ORM-0515860","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-09-25T08:37:28.263Z","editedAt":"2024-09-25T08:37:28.263Z","type":"asset","digest":"74629343","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515860"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66f3cbc8b10e4653161b730c","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3cbc8b10e4653161b730c"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3cbc8b10e4653161b730b/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66f3cbc8b10e4653161b730b"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:66f3cbc8b10e4653161b730b","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3cbc8b10e4653161b730b/drawing?format=cdxml"},"attributes":{"id":"asset:66f3cbc8b10e4653161b730b","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:66f3cbc8b10e4653161b730c","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3cbc8b10e4653161b730c"},"attributes":{"type":"batch","eid":"batch:66f3cbc8b10e4653161b730c","name":"ORM-0515860-001","digest":"24931436","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515860-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-25T08:37:28.909Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"97254194","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-09-25 11:37:32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ORM-0515861</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>201</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3cbcbccf303112a9a6325"},"data":{"type":"material","id":"asset:66f3cbcbccf303112a9a6325","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3cbcbccf303112a9a6325"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"66f3cbcbccf303112a9a6325","id":"asset:66f3cbcbccf303112a9a6325","eid":"asset:66f3cbcbccf303112a9a6325","name":"ORM-0515861","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-09-25T08:37:31.457Z","editedAt":"2024-09-25T08:37:31.457Z","type":"asset","digest":"51579799","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0515861"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:66f3cbcbccf303112a9a6326","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3cbcbccf303112a9a6326"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3cbcbccf303112a9a6325/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:66f3cbcbccf303112a9a6325"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:66f3cbcbccf303112a9a6326","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:66f3cbcbccf303112a9a6326"},"attributes":{"type":"batch","eid":"batch:66f3cbcbccf303112a9a6326","name":"ORM-0515861-001","digest":"54944541","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Name":{"value":"ORM-0515861-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-09-25T08:37:31.903Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:66f3cbcbccf303112a9a6325","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:66f3cbcbccf303112a9a6325/drawing?format=cdxml"},"attributes":{"id":"asset:66f3cbcbccf303112a9a6325","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"97254194","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/General Log/General-Log.xlsx
+++ b/logs/General Log/General-Log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1671,6 +1671,234 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-10-08 12:33:58</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ORM-0515990</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>201</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:6704fc85b10e4653161bd251"},"data":{"type":"material","id":"asset:6704fc85b10e4653161bd251","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:6704fc85b10e4653161bd251"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"6704fc85b10e4653161bd251","id":"asset:6704fc85b10e4653161bd251","eid":"asset:6704fc85b10e4653161bd251","name":"ORM-0515990","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-10-08T09:33:57.974Z","editedAt":"2024-10-08T09:33:57.974Z","type":"asset","digest":"13427300","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515990"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:6704fc86b10e4653161bd252","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:6704fc86b10e4653161bd252"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:6704fc85b10e4653161bd251/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:6704fc85b10e4653161bd251"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:6704fc86b10e4653161bd252","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:6704fc86b10e4653161bd252"},"attributes":{"type":"batch","eid":"batch:6704fc86b10e4653161bd252","name":"ORM-0515990-001","digest":"13658297","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515990-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-08T09:33:58.464Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"71137983","fields":{}}},{"type":"materialDrawing","id":"asset:6704fc85b10e4653161bd251","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:6704fc85b10e4653161bd251/drawing?format=cdxml"},"attributes":{"id":"asset:6704fc85b10e4653161bd251","type":"CHEMICAL_DRAWING"}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-10-08 12:34:02</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ORM-0515991</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>201</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:6704fc89a0148213210214b6"},"data":{"type":"material","id":"asset:6704fc89a0148213210214b6","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:6704fc89a0148213210214b6"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"6704fc89a0148213210214b6","id":"asset:6704fc89a0148213210214b6","eid":"asset:6704fc89a0148213210214b6","name":"ORM-0515991","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-10-08T09:34:01.925Z","editedAt":"2024-10-08T09:34:01.925Z","type":"asset","digest":"83352951","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0515991"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:6704fc8aa0148213210214b7","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:6704fc8aa0148213210214b7"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:6704fc89a0148213210214b6/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:6704fc89a0148213210214b6"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:6704fc89a0148213210214b6","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:6704fc89a0148213210214b6/drawing?format=cdxml"},"attributes":{"id":"asset:6704fc89a0148213210214b6","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:6704fc8aa0148213210214b7","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:6704fc8aa0148213210214b7"},"attributes":{"type":"batch","eid":"batch:6704fc8aa0148213210214b7","name":"ORM-0515991-001","digest":"58969899","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Name":{"value":"ORM-0515991-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-08T09:34:02.324Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"71137983","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-10-08 14:37:03</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ORM-0515992</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>201</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:6705195eb8301b45ef4cd83e"},"data":{"type":"material","id":"asset:6705195eb8301b45ef4cd83e","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:6705195eb8301b45ef4cd83e"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"6705195eb8301b45ef4cd83e","id":"asset:6705195eb8301b45ef4cd83e","eid":"asset:6705195eb8301b45ef4cd83e","name":"ORM-0515992","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-10-08T11:37:02.935Z","editedAt":"2024-10-08T11:37:02.935Z","type":"asset","digest":"41725117","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515992"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:6705195fb8301b45ef4cd83f","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:6705195fb8301b45ef4cd83f"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:6705195eb8301b45ef4cd83e/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:6705195eb8301b45ef4cd83e"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:6705195eb8301b45ef4cd83e","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:6705195eb8301b45ef4cd83e/drawing?format=cdxml"},"attributes":{"id":"asset:6705195eb8301b45ef4cd83e","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:6705195fb8301b45ef4cd83f","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:6705195fb8301b45ef4cd83f"},"attributes":{"type":"batch","eid":"batch:6705195fb8301b45ef4cd83f","name":"ORM-0515992-001","digest":"18272725","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515992-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-08T11:37:03.258Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"83782125","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-10-08 14:37:07</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ORM-0515993</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>201</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:670519628ac1f915a4ae0888"},"data":{"type":"material","id":"asset:670519628ac1f915a4ae0888","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:670519628ac1f915a4ae0888"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"670519628ac1f915a4ae0888","id":"asset:670519628ac1f915a4ae0888","eid":"asset:670519628ac1f915a4ae0888","name":"ORM-0515993","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-10-08T11:37:06.887Z","editedAt":"2024-10-08T11:37:06.887Z","type":"asset","digest":"81156399","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0515993"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:670519638ac1f915a4ae0889","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:670519638ac1f915a4ae0889"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:670519628ac1f915a4ae0888/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:670519628ac1f915a4ae0888"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:670519628ac1f915a4ae0888","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:670519628ac1f915a4ae0888/drawing?format=cdxml"},"attributes":{"id":"asset:670519628ac1f915a4ae0888","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:670519638ac1f915a4ae0889","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:670519638ac1f915a4ae0889"},"attributes":{"type":"batch","eid":"batch:670519638ac1f915a4ae0889","name":"ORM-0515993-001","digest":"95723097","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Name":{"value":"ORM-0515993-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-08T11:37:07.209Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"83782125","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-10-08 14:38:56</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ORM-0515992</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-10-08 14:38:58</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ORM-0515993</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/General Log/General-Log.xlsx
+++ b/logs/General Log/General-Log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1899,6 +1899,74 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-10-14 11:34:18</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ORM-0515992</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-10-14 11:34:20</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ORM-0515993</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/General Log/General-Log.xlsx
+++ b/logs/General Log/General-Log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1967,6 +1967,86 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-10-14 12:14:10</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ORM-0515994</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>201</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:670ce0e1399ff04b78d42006"},"data":{"type":"material","id":"asset:670ce0e1399ff04b78d42006","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:670ce0e1399ff04b78d42006"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"670ce0e1399ff04b78d42006","id":"asset:670ce0e1399ff04b78d42006","eid":"asset:670ce0e1399ff04b78d42006","name":"ORM-0515994","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-10-14T09:14:09.572Z","editedAt":"2024-10-14T09:14:09.572Z","type":"asset","digest":"69627061","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515994"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:670ce0e2399ff04b78d42007","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:670ce0e2399ff04b78d42007"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:670ce0e1399ff04b78d42006/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:670ce0e1399ff04b78d42006"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:670ce0e2399ff04b78d42007","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:670ce0e2399ff04b78d42007"},"attributes":{"type":"batch","eid":"batch:670ce0e2399ff04b78d42007","name":"ORM-0515994-001","digest":"30589400","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0515994-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-14T09:14:10.192Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:670ce0e1399ff04b78d42006","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:670ce0e1399ff04b78d42006/drawing?format=cdxml"},"attributes":{"id":"asset:670ce0e1399ff04b78d42006","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"90785513","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-10-14 12:14:13</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ORM-0515995</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>201</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:670ce0e58ac1f915a4ae0b1e"},"data":{"type":"material","id":"asset:670ce0e58ac1f915a4ae0b1e","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:670ce0e58ac1f915a4ae0b1e"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"670ce0e58ac1f915a4ae0b1e","id":"asset:670ce0e58ac1f915a4ae0b1e","eid":"asset:670ce0e58ac1f915a4ae0b1e","name":"ORM-0515995","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-10-14T09:14:13.183Z","editedAt":"2024-10-14T09:14:13.183Z","type":"asset","digest":"28113481","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0515995"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:670ce0e58ac1f915a4ae0b1f","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:670ce0e58ac1f915a4ae0b1f"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:670ce0e58ac1f915a4ae0b1e/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:670ce0e58ac1f915a4ae0b1e"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:670ce0e58ac1f915a4ae0b1f","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:670ce0e58ac1f915a4ae0b1f"},"attributes":{"type":"batch","eid":"batch:670ce0e58ac1f915a4ae0b1f","name":"ORM-0515995-001","digest":"81912939","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Name":{"value":"ORM-0515995-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-14T09:14:13.479Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"90785513","fields":{}}},{"type":"materialDrawing","id":"asset:670ce0e58ac1f915a4ae0b1e","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:670ce0e58ac1f915a4ae0b1e/drawing?format=cdxml"},"attributes":{"id":"asset:670ce0e58ac1f915a4ae0b1e","type":"CHEMICAL_DRAWING"}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/General Log/General-Log.xlsx
+++ b/logs/General Log/General-Log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2047,6 +2047,86 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-10-28 10:12:33</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ORM-0516002</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>201</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f47701a12207a92bcb000"},"data":{"type":"material","id":"asset:671f47701a12207a92bcb000","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f47701a12207a92bcb000"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f47701a12207a92bcb000","id":"asset:671f47701a12207a92bcb000","eid":"asset:671f47701a12207a92bcb000","name":"ORM-0516002","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-10-28T08:12:33.005Z","editedAt":"2024-10-28T08:12:33.005Z","type":"asset","digest":"16083839","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0516002"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f47711a12207a92bcb001","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f47711a12207a92bcb001"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f47701a12207a92bcb000/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f47701a12207a92bcb000"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f47711a12207a92bcb001","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f47711a12207a92bcb001"},"attributes":{"type":"batch","eid":"batch:671f47711a12207a92bcb001","name":"ORM-0516002-001","digest":"73997506","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0516002-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T08:12:33.547Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:671f47701a12207a92bcb000","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f47701a12207a92bcb000/drawing?format=cdxml"},"attributes":{"id":"asset:671f47701a12207a92bcb000","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"13184553","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-10-28 10:12:37</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ORM-0516003</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>201</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4774bc105f6067d3957e"},"data":{"type":"material","id":"asset:671f4774bc105f6067d3957e","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4774bc105f6067d3957e"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f4774bc105f6067d3957e","id":"asset:671f4774bc105f6067d3957e","eid":"asset:671f4774bc105f6067d3957e","name":"ORM-0516003","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-10-28T08:12:36.905Z","editedAt":"2024-10-28T08:12:36.905Z","type":"asset","digest":"38794071","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0516003"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f4775bc105f6067d3957f","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f4775bc105f6067d3957f"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4774bc105f6067d3957e/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f4774bc105f6067d3957e"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f4775bc105f6067d3957f","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f4775bc105f6067d3957f"},"attributes":{"type":"batch","eid":"batch:671f4775bc105f6067d3957f","name":"ORM-0516003-001","digest":"32351343","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Name":{"value":"ORM-0516003-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T08:12:37.534Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"13184553","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}},{"type":"materialDrawing","id":"asset:671f4774bc105f6067d3957e","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4774bc105f6067d3957e/drawing?format=cdxml"},"attributes":{"id":"asset:671f4774bc105f6067d3957e","type":"CHEMICAL_DRAWING"}}]}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/General Log/General-Log.xlsx
+++ b/logs/General Log/General-Log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2127,6 +2127,406 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-10-28 10:17:42</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ORM-0516004</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>201</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f48a4b0480736afa1ed2d"},"data":{"type":"material","id":"asset:671f48a4b0480736afa1ed2d","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f48a4b0480736afa1ed2d"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f48a4b0480736afa1ed2d","id":"asset:671f48a4b0480736afa1ed2d","eid":"asset:671f48a4b0480736afa1ed2d","name":"ORM-0516004","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-10-28T08:17:41.024Z","editedAt":"2024-10-28T08:17:41.024Z","type":"asset","digest":"33984483","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0516004"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f48a5b0480736afa1ed2e","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f48a5b0480736afa1ed2e"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f48a4b0480736afa1ed2d/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f48a4b0480736afa1ed2d"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f48a5b0480736afa1ed2e","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f48a5b0480736afa1ed2e"},"attributes":{"type":"batch","eid":"batch:671f48a5b0480736afa1ed2e","name":"ORM-0516004-001","digest":"38748822","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0516004-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T08:17:41.551Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:671f48a4b0480736afa1ed2d","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f48a4b0480736afa1ed2d/drawing?format=cdxml"},"attributes":{"id":"asset:671f48a4b0480736afa1ed2d","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"11206735","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-10-28 10:17:45</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ORM-0516005</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>201</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f48a8b0480736afa1ed2f"},"data":{"type":"material","id":"asset:671f48a8b0480736afa1ed2f","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f48a8b0480736afa1ed2f"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f48a8b0480736afa1ed2f","id":"asset:671f48a8b0480736afa1ed2f","eid":"asset:671f48a8b0480736afa1ed2f","name":"ORM-0516005","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-10-28T08:17:44.527Z","editedAt":"2024-10-28T08:17:44.527Z","type":"asset","digest":"54014979","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0516005"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f48a8b0480736afa1ed30","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f48a8b0480736afa1ed30"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f48a8b0480736afa1ed2f/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f48a8b0480736afa1ed2f"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f48a8b0480736afa1ed30","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f48a8b0480736afa1ed30"},"attributes":{"type":"batch","eid":"batch:671f48a8b0480736afa1ed30","name":"ORM-0516005-001","digest":"57597351","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Name":{"value":"ORM-0516005-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T08:17:44.864Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"11206735","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}},{"type":"materialDrawing","id":"asset:671f48a8b0480736afa1ed2f","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f48a8b0480736afa1ed2f/drawing?format=cdxml"},"attributes":{"id":"asset:671f48a8b0480736afa1ed2f","type":"CHEMICAL_DRAWING"}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-10-28 10:22:18</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ORM-0516006</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>201</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f49b91a12207a92bcb002"},"data":{"type":"material","id":"asset:671f49b91a12207a92bcb002","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f49b91a12207a92bcb002"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f49b91a12207a92bcb002","id":"asset:671f49b91a12207a92bcb002","eid":"asset:671f49b91a12207a92bcb002","name":"ORM-0516006","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-10-28T08:22:18.045Z","editedAt":"2024-10-28T08:22:18.045Z","type":"asset","digest":"81887489","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0516006"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f49ba1a12207a92bcb003","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f49ba1a12207a92bcb003"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f49b91a12207a92bcb002/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f49b91a12207a92bcb002"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f49ba1a12207a92bcb003","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f49ba1a12207a92bcb003"},"attributes":{"type":"batch","eid":"batch:671f49ba1a12207a92bcb003","name":"ORM-0516006-001","digest":"67763751","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0516006-001"},"Project":{"value":"TRPA1"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T08:22:18.540Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:671f49b91a12207a92bcb002","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f49b91a12207a92bcb002/drawing?format=cdxml"},"attributes":{"id":"asset:671f49b91a12207a92bcb002","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"64278126","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-10-28 10:22:23</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ORM-0516007</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>201</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f49bdb0480736afa1ed31"},"data":{"type":"material","id":"asset:671f49bdb0480736afa1ed31","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f49bdb0480736afa1ed31"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f49bdb0480736afa1ed31","id":"asset:671f49bdb0480736afa1ed31","eid":"asset:671f49bdb0480736afa1ed31","name":"ORM-0516007","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-10-28T08:22:22.001Z","editedAt":"2024-10-28T08:22:22.001Z","type":"asset","digest":"67739634","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0516007"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f49beb0480736afa1ed32","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f49beb0480736afa1ed32"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f49bdb0480736afa1ed31/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f49bdb0480736afa1ed31"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f49beb0480736afa1ed32","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f49beb0480736afa1ed32"},"attributes":{"type":"batch","eid":"batch:671f49beb0480736afa1ed32","name":"ORM-0516007-001","digest":"39670267","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Name":{"value":"ORM-0516007-001"},"Project":{"value":"TRPA1"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T08:22:22.538Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:671f49bdb0480736afa1ed31","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f49bdb0480736afa1ed31/drawing?format=cdxml"},"attributes":{"id":"asset:671f49bdb0480736afa1ed31","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"64278126","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-10-28 10:30:47</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ORM-0516008</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>201</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4bb6aee6dd75754a8e07"},"data":{"type":"material","id":"asset:671f4bb6aee6dd75754a8e07","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4bb6aee6dd75754a8e07"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f4bb6aee6dd75754a8e07","id":"asset:671f4bb6aee6dd75754a8e07","eid":"asset:671f4bb6aee6dd75754a8e07","name":"ORM-0516008","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-10-28T08:30:47.073Z","editedAt":"2024-10-28T08:30:47.073Z","type":"asset","digest":"75331620","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0516008"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f4bb7aee6dd75754a8e08","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f4bb7aee6dd75754a8e08"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4bb6aee6dd75754a8e07/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f4bb6aee6dd75754a8e07"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f4bb7aee6dd75754a8e08","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f4bb7aee6dd75754a8e08"},"attributes":{"type":"batch","eid":"batch:671f4bb7aee6dd75754a8e08","name":"ORM-0516008-001","digest":"94120596","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Library ID":{"value":"test"},"Name":{"value":"ORM-0516008-001"},"Project":{"value":"TRPA1"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T08:30:47.514Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"38038242","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}},{"type":"materialDrawing","id":"asset:671f4bb6aee6dd75754a8e07","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4bb6aee6dd75754a8e07/drawing?format=cdxml"},"attributes":{"id":"asset:671f4bb6aee6dd75754a8e07","type":"CHEMICAL_DRAWING"}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-10-28 10:30:51</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ORM-0516009</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>201</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4bbab0480736afa1ed33"},"data":{"type":"material","id":"asset:671f4bbab0480736afa1ed33","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4bbab0480736afa1ed33"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f4bbab0480736afa1ed33","id":"asset:671f4bbab0480736afa1ed33","eid":"asset:671f4bbab0480736afa1ed33","name":"ORM-0516009","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-10-28T08:30:50.423Z","editedAt":"2024-10-28T08:30:50.423Z","type":"asset","digest":"82903810","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0516009"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f4bbab0480736afa1ed34","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f4bbab0480736afa1ed34"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4bbab0480736afa1ed33/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f4bbab0480736afa1ed33"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f4bbab0480736afa1ed33","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4bbab0480736afa1ed33/drawing?format=cdxml"},"attributes":{"id":"asset:671f4bbab0480736afa1ed33","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"38038242","fields":{}}},{"type":"material","id":"batch:671f4bbab0480736afa1ed34","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f4bbab0480736afa1ed34"},"attributes":{"type":"batch","eid":"batch:671f4bbab0480736afa1ed34","name":"ORM-0516009-001","digest":"51972337","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Library ID":{"value":"test"},"Name":{"value":"ORM-0516009-001"},"Project":{"value":"TRPA1"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T08:30:50.677Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-10-28 10:39:18</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ORM-0516010</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>201</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4db5aee6dd75754a8e09"},"data":{"type":"material","id":"asset:671f4db5aee6dd75754a8e09","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4db5aee6dd75754a8e09"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f4db5aee6dd75754a8e09","id":"asset:671f4db5aee6dd75754a8e09","eid":"asset:671f4db5aee6dd75754a8e09","name":"ORM-0516010","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-10-28T08:39:17.468Z","editedAt":"2024-10-28T08:39:17.468Z","type":"asset","digest":"63825572","fields":{"Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0516010"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f4db5aee6dd75754a8e0a","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f4db5aee6dd75754a8e0a"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4db5aee6dd75754a8e09/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f4db5aee6dd75754a8e09"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f4db5aee6dd75754a8e0a","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f4db5aee6dd75754a8e0a"},"attributes":{"type":"batch","eid":"batch:671f4db5aee6dd75754a8e0a","name":"ORM-0516010-001","digest":"81398182","fields":{"Batch Chemical Name":{"value":"2-[({4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl}methyl)(methyl)amino]-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516010-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T08:39:17.773Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:671f4db5aee6dd75754a8e09","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4db5aee6dd75754a8e09/drawing?format=cdxml"},"attributes":{"id":"asset:671f4db5aee6dd75754a8e09","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"61458965","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-10-28 10:39:21</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ORM-0516011</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>201</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4db8b1b4403b714883a6"},"data":{"type":"material","id":"asset:671f4db8b1b4403b714883a6","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4db8b1b4403b714883a6"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f4db8b1b4403b714883a6","id":"asset:671f4db8b1b4403b714883a6","eid":"asset:671f4db8b1b4403b714883a6","name":"ORM-0516011","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-10-28T08:39:21.016Z","editedAt":"2024-10-28T08:39:21.016Z","type":"asset","digest":"49838842","fields":{"Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0516011"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f4db9b1b4403b714883a7","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f4db9b1b4403b714883a7"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4db8b1b4403b714883a6/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f4db8b1b4403b714883a6"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f4db9b1b4403b714883a7","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f4db9b1b4403b714883a7"},"attributes":{"type":"batch","eid":"batch:671f4db9b1b4403b714883a7","name":"ORM-0516011-001","digest":"75355789","fields":{"Batch Chemical Name":{"value":"2-[1-(aminomethyl)cyclopropyl]-1-{2-[1-(2-methoxyethyl)-1H-imidazol-2-yl]-3,3-dimethylazetidin-1-yl}ethan-1-one hydrobromide, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516011-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T08:39:21.529Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:671f4db8b1b4403b714883a6","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4db8b1b4403b714883a6/drawing?format=cdxml"},"attributes":{"id":"asset:671f4db8b1b4403b714883a6","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"61458965","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-10-28 10:43:15</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ORM-0516012</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>201</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4ea26395b975bca22f6e"},"data":{"type":"material","id":"asset:671f4ea26395b975bca22f6e","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4ea26395b975bca22f6e"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f4ea26395b975bca22f6e","id":"asset:671f4ea26395b975bca22f6e","eid":"asset:671f4ea26395b975bca22f6e","name":"ORM-0516012","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T08:43:14.577Z","editedAt":"2024-10-28T08:43:14.577Z","type":"asset","digest":"51718638","fields":{"Chemical Name":{"value":"2-{[1,1'-biphenyl]-4-yl}-N'-(4-chlorobenzoyl)acetohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516012"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f4ea26395b975bca22f6f","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f4ea26395b975bca22f6f"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4ea26395b975bca22f6e/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f4ea26395b975bca22f6e"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f4ea26395b975bca22f6e","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4ea26395b975bca22f6e/drawing?format=cdxml"},"attributes":{"id":"asset:671f4ea26395b975bca22f6e","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:671f4ea26395b975bca22f6f","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f4ea26395b975bca22f6f"},"attributes":{"type":"batch","eid":"batch:671f4ea26395b975bca22f6f","name":"ORM-0516012-001","digest":"28042261","fields":{"Batch Chemical Name":{"value":"2-{[1,1'-biphenyl]-4-yl}-N'-(4-chlorobenzoyl)acetohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516012-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T08:43:14.874Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"81258343","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-10-28 10:43:18</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ORM-0516013</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>201</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4ea61a12207a92bcb004"},"data":{"type":"material","id":"asset:671f4ea61a12207a92bcb004","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4ea61a12207a92bcb004"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f4ea61a12207a92bcb004","id":"asset:671f4ea61a12207a92bcb004","eid":"asset:671f4ea61a12207a92bcb004","name":"ORM-0516013","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T08:43:18.149Z","editedAt":"2024-10-28T08:43:18.149Z","type":"asset","digest":"34482990","fields":{"Chemical Name":{"value":"5-[(4-chlorophenyl)amino]-N-(4-methylphenyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516013"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f4ea61a12207a92bcb005","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f4ea61a12207a92bcb005"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4ea61a12207a92bcb004/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f4ea61a12207a92bcb004"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f4ea61a12207a92bcb004","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f4ea61a12207a92bcb004/drawing?format=cdxml"},"attributes":{"id":"asset:671f4ea61a12207a92bcb004","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:671f4ea61a12207a92bcb005","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f4ea61a12207a92bcb005"},"attributes":{"type":"batch","eid":"batch:671f4ea61a12207a92bcb005","name":"ORM-0516013-001","digest":"93426211","fields":{"Batch Chemical Name":{"value":"5-[(4-chlorophenyl)amino]-N-(4-methylphenyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516013-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T08:43:18.520Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"81258343","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/General Log/General-Log.xlsx
+++ b/logs/General Log/General-Log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2527,6 +2527,206 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-10-28 11:06:19</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ORM-0516014</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MolPort-009-747-996</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>C14H11N3O2S</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MOLPORT/molport_test.sdf</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>201</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f540abc105f6067d39580"},"data":{"type":"material","id":"asset:671f540abc105f6067d39580","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f540abc105f6067d39580"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f540abc105f6067d39580","id":"asset:671f540abc105f6067d39580","eid":"asset:671f540abc105f6067d39580","name":"ORM-0516014","synonyms":["N1C(ONC1C)C1CCC(NC(=O)C2SCCC2)CC1","C14H11N3O2S"],"description":"","createdAt":"2024-10-28T09:06:18.567Z","editedAt":"2024-10-28T09:06:18.567Z","type":"asset","digest":"31900071","fields":{"Chemical Name":{"value":"N-[4-(3-methyl-1,2,4-oxadiazol-5-yl)phenyl]thiophene-2-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"285.0572"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;14&lt;/sub&gt;H&lt;sub&gt;11&lt;/sub&gt;N&lt;sub&gt;3&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;S"},"Molecular Weight":{"value":"285.32 g/mol"},"Name":{"value":"ORM-0516014"},"Stereochemistry":{"value":"achiral"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f540abc105f6067d39581","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f540abc105f6067d39581"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f540abc105f6067d39580/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f540abc105f6067d39580"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f540abc105f6067d39581","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f540abc105f6067d39581"},"attributes":{"type":"batch","eid":"batch:671f540abc105f6067d39581","name":"ORM-0516014-001","digest":"16551587","fields":{"Batch Chemical Name":{"value":"N-[4-(3-methyl-1,2,4-oxadiazol-5-yl)phenyl]thiophene-2-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;14&lt;/sub&gt;H&lt;sub&gt;11&lt;/sub&gt;N&lt;sub&gt;3&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;S"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"285.32 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516014-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T09:06:18.891Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:671f540abc105f6067d39580","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f540abc105f6067d39580/drawing?format=cdxml"},"attributes":{"id":"asset:671f540abc105f6067d39580","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"15127052","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-10-28 11:09:41</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ORM-0516015</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>201</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f54d46395b975bca22f75"},"data":{"type":"material","id":"asset:671f54d46395b975bca22f75","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f54d46395b975bca22f75"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f54d46395b975bca22f75","id":"asset:671f54d46395b975bca22f75","eid":"asset:671f54d46395b975bca22f75","name":"ORM-0516015","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-10-28T09:09:40.547Z","editedAt":"2024-10-28T09:09:40.547Z","type":"asset","digest":"54222663","fields":{"Chemical Name":{"value":"2-(((4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl)methyl)(methyl)amino)-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0516015"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f54d46395b975bca22f76","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f54d46395b975bca22f76"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f54d46395b975bca22f75/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f54d46395b975bca22f75"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f54d46395b975bca22f75","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f54d46395b975bca22f75/drawing?format=cdxml"},"attributes":{"id":"asset:671f54d46395b975bca22f75","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"87955301","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}},{"type":"material","id":"batch:671f54d46395b975bca22f76","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f54d46395b975bca22f76"},"attributes":{"type":"batch","eid":"batch:671f54d46395b975bca22f76","name":"ORM-0516015-001","digest":"75127726","fields":{"Batch Chemical Name":{"value":"2-(((4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl)methyl)(methyl)amino)-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516015-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T09:09:40.795Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-10-28 11:09:44</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ORM-0516016</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>201</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f54d7bc105f6067d39582"},"data":{"type":"material","id":"asset:671f54d7bc105f6067d39582","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f54d7bc105f6067d39582"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f54d7bc105f6067d39582","id":"asset:671f54d7bc105f6067d39582","eid":"asset:671f54d7bc105f6067d39582","name":"ORM-0516016","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-10-28T09:09:43.906Z","editedAt":"2024-10-28T09:09:43.906Z","type":"asset","digest":"33035143","fields":{"Chemical Name":{"value":"2-(1-(aminomethyl)cyclopropyl)-1-(2-(1-(2-methoxyethyl)-1H-imidazol-2-yl)-3,3-dimethylazetidin-1-yl)ethan-1-one"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0516016"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f54d8bc105f6067d39583","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f54d8bc105f6067d39583"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f54d7bc105f6067d39582/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f54d7bc105f6067d39582"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f54d8bc105f6067d39583","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f54d8bc105f6067d39583"},"attributes":{"type":"batch","eid":"batch:671f54d8bc105f6067d39583","name":"ORM-0516016-001","digest":"13092146","fields":{"Batch Chemical Name":{"value":"2-(1-(aminomethyl)cyclopropyl)-1-(2-(1-(2-methoxyethyl)-1H-imidazol-2-yl)-3,3-dimethylazetidin-1-yl)ethan-1-one, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516016-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T09:09:44.125Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:671f54d7bc105f6067d39582","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f54d7bc105f6067d39582/drawing?format=cdxml"},"attributes":{"id":"asset:671f54d7bc105f6067d39582","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"87955301","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-10-28 11:11:08</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ORM-0516017</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>201</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f552b6395b975bca22f77"},"data":{"type":"material","id":"asset:671f552b6395b975bca22f77","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f552b6395b975bca22f77"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f552b6395b975bca22f77","id":"asset:671f552b6395b975bca22f77","eid":"asset:671f552b6395b975bca22f77","name":"ORM-0516017","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-10-28T09:11:07.783Z","editedAt":"2024-10-28T09:11:07.783Z","type":"asset","digest":"88092569","fields":{"Chemical Name":{"value":"2-(((4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl)methyl)(methyl)amino)-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0516017"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f552b6395b975bca22f78","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f552b6395b975bca22f78"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f552b6395b975bca22f77/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f552b6395b975bca22f77"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f552b6395b975bca22f77","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f552b6395b975bca22f77/drawing?format=cdxml"},"attributes":{"id":"asset:671f552b6395b975bca22f77","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:671f552b6395b975bca22f78","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f552b6395b975bca22f78"},"attributes":{"type":"batch","eid":"batch:671f552b6395b975bca22f78","name":"ORM-0516017-001","digest":"64567284","fields":{"Batch Chemical Name":{"value":"2-(((4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl)methyl)(methyl)amino)-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516017-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T09:11:08.029Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"68126978","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-10-28 11:11:11</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ORM-0516018</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>201</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f552e1a12207a92bcb007"},"data":{"type":"material","id":"asset:671f552e1a12207a92bcb007","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f552e1a12207a92bcb007"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f552e1a12207a92bcb007","id":"asset:671f552e1a12207a92bcb007","eid":"asset:671f552e1a12207a92bcb007","name":"ORM-0516018","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-10-28T09:11:10.782Z","editedAt":"2024-10-28T09:11:10.782Z","type":"asset","digest":"41788883","fields":{"Chemical Name":{"value":"2-(1-(aminomethyl)cyclopropyl)-1-(2-(1-(2-methoxyethyl)-1H-imidazol-2-yl)-3,3-dimethylazetidin-1-yl)ethan-1-one"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0516018"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f552e1a12207a92bcb008","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f552e1a12207a92bcb008"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f552e1a12207a92bcb007/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f552e1a12207a92bcb007"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f552e1a12207a92bcb008","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f552e1a12207a92bcb008"},"attributes":{"type":"batch","eid":"batch:671f552e1a12207a92bcb008","name":"ORM-0516018-001","digest":"58492800","fields":{"Batch Chemical Name":{"value":"2-(1-(aminomethyl)cyclopropyl)-1-(2-(1-(2-methoxyethyl)-1H-imidazol-2-yl)-3,3-dimethylazetidin-1-yl)ethan-1-one, hydrogen bromide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;&amp;middot;BRH"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"359.901 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516018-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T09:11:11.028Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:671f552e1a12207a92bcb007","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f552e1a12207a92bcb007/drawing?format=cdxml"},"attributes":{"id":"asset:671f552e1a12207a92bcb007","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"68126978","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/General Log/General-Log.xlsx
+++ b/logs/General Log/General-Log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,6 +2727,2124 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:03:54</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:03:56</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:05:40</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ORM-0516019</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>201</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f70036395b975bca22f7a"},"data":{"type":"material","id":"asset:671f70036395b975bca22f7a","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f70036395b975bca22f7a"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f70036395b975bca22f7a","id":"asset:671f70036395b975bca22f7a","eid":"asset:671f70036395b975bca22f7a","name":"ORM-0516019","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-10-28T11:05:40.046Z","editedAt":"2024-10-28T11:05:40.046Z","type":"asset","digest":"13671557","fields":{"Chemical Name":{"value":"2-(((4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl)methyl)(methyl)amino)-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0516019"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f70046395b975bca22f7b","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f70046395b975bca22f7b"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f70036395b975bca22f7a/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f70036395b975bca22f7a"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f70046395b975bca22f7b","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f70046395b975bca22f7b"},"attributes":{"type":"batch","eid":"batch:671f70046395b975bca22f7b","name":"ORM-0516019-001","digest":"37642521","fields":{"Batch Chemical Name":{"value":"2-(((4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl)methyl)(methyl)amino)-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516019-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T11:05:40.529Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"94662073","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}},{"type":"materialDrawing","id":"asset:671f70036395b975bca22f7a","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f70036395b975bca22f7a/drawing?format=cdxml"},"attributes":{"id":"asset:671f70036395b975bca22f7a","type":"CHEMICAL_DRAWING"}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:05:44</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ORM-0516020</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>201</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7007b1b4403b714883ab"},"data":{"type":"material","id":"asset:671f7007b1b4403b714883ab","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7007b1b4403b714883ab"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f7007b1b4403b714883ab","id":"asset:671f7007b1b4403b714883ab","eid":"asset:671f7007b1b4403b714883ab","name":"ORM-0516020","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-10-28T11:05:43.438Z","editedAt":"2024-10-28T11:05:43.438Z","type":"asset","digest":"13668989","fields":{"Chemical Name":{"value":"2-(1-(aminomethyl)cyclopropyl)-1-(2-(1-(2-methoxyethyl)-1H-imidazol-2-yl)-3,3-dimethylazetidin-1-yl)ethan-1-one"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0516020"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f7007b1b4403b714883ac","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7007b1b4403b714883ac"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7007b1b4403b714883ab/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f7007b1b4403b714883ab"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f7007b1b4403b714883ac","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7007b1b4403b714883ac"},"attributes":{"type":"batch","eid":"batch:671f7007b1b4403b714883ac","name":"ORM-0516020-001","digest":"84212549","fields":{"Batch Chemical Name":{"value":"2-(1-(aminomethyl)cyclopropyl)-1-(2-(1-(2-methoxyethyl)-1H-imidazol-2-yl)-3,3-dimethylazetidin-1-yl)ethan-1-one"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"320.44 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516020-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T11:05:43.657Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"94662073","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}},{"type":"materialDrawing","id":"asset:671f7007b1b4403b714883ab","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7007b1b4403b714883ab/drawing?format=cdxml"},"attributes":{"id":"asset:671f7007b1b4403b714883ab","type":"CHEMICAL_DRAWING"}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:28:20</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:28:21</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:31:45</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:31:47</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:34:42</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:34:44</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:37:12</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:37:14</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:38:27</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ORM-0516021</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>201</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f77b2aee6dd75754a8e0f"},"data":{"type":"material","id":"asset:671f77b2aee6dd75754a8e0f","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f77b2aee6dd75754a8e0f"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f77b2aee6dd75754a8e0f","id":"asset:671f77b2aee6dd75754a8e0f","eid":"asset:671f77b2aee6dd75754a8e0f","name":"ORM-0516021","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T11:38:26.447Z","editedAt":"2024-10-28T11:38:26.447Z","type":"asset","digest":"90559375","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516021"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f77b2aee6dd75754a8e10","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f77b2aee6dd75754a8e10"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f77b2aee6dd75754a8e0f/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f77b2aee6dd75754a8e0f"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f77b2aee6dd75754a8e0f","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f77b2aee6dd75754a8e0f/drawing?format=cdxml"},"attributes":{"id":"asset:671f77b2aee6dd75754a8e0f","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:671f77b2aee6dd75754a8e10","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f77b2aee6dd75754a8e10"},"attributes":{"type":"batch","eid":"batch:671f77b2aee6dd75754a8e10","name":"ORM-0516021-001","digest":"69240082","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516021-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T11:38:26.786Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"37532609","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:38:28</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:50:20</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:50:24</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ORM-0516022</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>201</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7a7f1a12207a92bcb016"},"data":{"type":"material","id":"asset:671f7a7f1a12207a92bcb016","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7a7f1a12207a92bcb016"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f7a7f1a12207a92bcb016","id":"asset:671f7a7f1a12207a92bcb016","eid":"asset:671f7a7f1a12207a92bcb016","name":"ORM-0516022","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T11:50:23.881Z","editedAt":"2024-10-28T11:50:23.881Z","type":"asset","digest":"91979245","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516022"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f7a801a12207a92bcb017","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7a801a12207a92bcb017"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7a7f1a12207a92bcb016/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f7a7f1a12207a92bcb016"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f7a801a12207a92bcb017","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7a801a12207a92bcb017"},"attributes":{"type":"batch","eid":"batch:671f7a801a12207a92bcb017","name":"ORM-0516022-001","digest":"35647074","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516022-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T11:50:24.565Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:671f7a7f1a12207a92bcb016","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7a7f1a12207a92bcb016/drawing?format=cdxml"},"attributes":{"id":"asset:671f7a7f1a12207a92bcb016","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"93703560","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:54:41</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:54:43</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:56:58</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:57:00</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:58:20</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ORM-0516023</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>201</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7c5bb0480736afa1ed42"},"data":{"type":"material","id":"asset:671f7c5bb0480736afa1ed42","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7c5bb0480736afa1ed42"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f7c5bb0480736afa1ed42","id":"asset:671f7c5bb0480736afa1ed42","eid":"asset:671f7c5bb0480736afa1ed42","name":"ORM-0516023","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T11:58:20.043Z","editedAt":"2024-10-28T11:58:20.043Z","type":"asset","digest":"27157105","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516023"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f7c5cb0480736afa1ed43","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7c5cb0480736afa1ed43"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7c5bb0480736afa1ed42/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f7c5bb0480736afa1ed42"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f7c5bb0480736afa1ed42","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7c5bb0480736afa1ed42/drawing?format=cdxml"},"attributes":{"id":"asset:671f7c5bb0480736afa1ed42","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:671f7c5cb0480736afa1ed43","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7c5cb0480736afa1ed43"},"attributes":{"type":"batch","eid":"batch:671f7c5cb0480736afa1ed43","name":"ORM-0516023-001","digest":"16980695","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516023-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T11:58:20.573Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"86302731","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-10-28 13:58:23</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-10-28 14:01:16</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ORM-0516024</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>201</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7d0bb1b4403b714883be"},"data":{"type":"material","id":"asset:671f7d0bb1b4403b714883be","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7d0bb1b4403b714883be"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f7d0bb1b4403b714883be","id":"asset:671f7d0bb1b4403b714883be","eid":"asset:671f7d0bb1b4403b714883be","name":"ORM-0516024","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T12:01:15.819Z","editedAt":"2024-10-28T12:01:15.819Z","type":"asset","digest":"29306384","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516024"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f7d0cb1b4403b714883bf","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7d0cb1b4403b714883bf"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7d0bb1b4403b714883be/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f7d0bb1b4403b714883be"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f7d0bb1b4403b714883be","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7d0bb1b4403b714883be/drawing?format=cdxml"},"attributes":{"id":"asset:671f7d0bb1b4403b714883be","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:671f7d0cb1b4403b714883bf","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7d0cb1b4403b714883bf"},"attributes":{"type":"batch","eid":"batch:671f7d0cb1b4403b714883bf","name":"ORM-0516024-001","digest":"91465778","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516024-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T12:01:16.100Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"26707391","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-10-28 14:01:18</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-10-28 14:05:58</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ORM-0516025</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>201</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7e25bc105f6067d39591"},"data":{"type":"material","id":"asset:671f7e25bc105f6067d39591","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7e25bc105f6067d39591"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f7e25bc105f6067d39591","id":"asset:671f7e25bc105f6067d39591","eid":"asset:671f7e25bc105f6067d39591","name":"ORM-0516025","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T12:05:57.552Z","editedAt":"2024-10-28T12:05:57.552Z","type":"asset","digest":"59983161","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516025"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f7e25bc105f6067d39592","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7e25bc105f6067d39592"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7e25bc105f6067d39591/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f7e25bc105f6067d39591"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f7e25bc105f6067d39592","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7e25bc105f6067d39592"},"attributes":{"type":"batch","eid":"batch:671f7e25bc105f6067d39592","name":"ORM-0516025-001","digest":"63384617","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516025-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T12:05:57.938Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"76923731","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}},{"type":"materialDrawing","id":"asset:671f7e25bc105f6067d39591","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7e25bc105f6067d39591/drawing?format=cdxml"},"attributes":{"id":"asset:671f7e25bc105f6067d39591","type":"CHEMICAL_DRAWING"}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-10-28 14:06:01</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ORM-0516026</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>201</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7e28b1b4403b714883c2"},"data":{"type":"material","id":"asset:671f7e28b1b4403b714883c2","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7e28b1b4403b714883c2"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f7e28b1b4403b714883c2","id":"asset:671f7e28b1b4403b714883c2","eid":"asset:671f7e28b1b4403b714883c2","name":"ORM-0516026","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T12:06:00.783Z","editedAt":"2024-10-28T12:06:00.783Z","type":"asset","digest":"22378483","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516026"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f7e28b1b4403b714883c3","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7e28b1b4403b714883c3"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7e28b1b4403b714883c2/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f7e28b1b4403b714883c2"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f7e28b1b4403b714883c2","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7e28b1b4403b714883c2/drawing?format=cdxml"},"attributes":{"id":"asset:671f7e28b1b4403b714883c2","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:671f7e28b1b4403b714883c3","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7e28b1b4403b714883c3"},"attributes":{"type":"batch","eid":"batch:671f7e28b1b4403b714883c3","name":"ORM-0516026-001","digest":"49316953","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516026-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T12:06:01.007Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"76923731","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-10-28 14:08:49</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ORM-0516027</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>201</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7ed0bc105f6067d39594"},"data":{"type":"material","id":"asset:671f7ed0bc105f6067d39594","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7ed0bc105f6067d39594"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f7ed0bc105f6067d39594","id":"asset:671f7ed0bc105f6067d39594","eid":"asset:671f7ed0bc105f6067d39594","name":"ORM-0516027","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T12:08:48.465Z","editedAt":"2024-10-28T12:08:48.465Z","type":"asset","digest":"30366900","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516027"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f7ed0bc105f6067d39595","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7ed0bc105f6067d39595"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7ed0bc105f6067d39594/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f7ed0bc105f6067d39594"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f7ed0bc105f6067d39594","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7ed0bc105f6067d39594/drawing?format=cdxml"},"attributes":{"id":"asset:671f7ed0bc105f6067d39594","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:671f7ed0bc105f6067d39595","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7ed0bc105f6067d39595"},"attributes":{"type":"batch","eid":"batch:671f7ed0bc105f6067d39595","name":"ORM-0516027-001","digest":"73497486","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516027-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T12:08:48.808Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"14255602","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-10-28 14:08:52</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ORM-0516028</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>201</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7ed3bc105f6067d39596"},"data":{"type":"material","id":"asset:671f7ed3bc105f6067d39596","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7ed3bc105f6067d39596"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f7ed3bc105f6067d39596","id":"asset:671f7ed3bc105f6067d39596","eid":"asset:671f7ed3bc105f6067d39596","name":"ORM-0516028","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T12:08:51.429Z","editedAt":"2024-10-28T12:08:51.429Z","type":"asset","digest":"34870165","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516028"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f7ed3bc105f6067d39597","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7ed3bc105f6067d39597"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7ed3bc105f6067d39596/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f7ed3bc105f6067d39596"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f7ed3bc105f6067d39596","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7ed3bc105f6067d39596/drawing?format=cdxml"},"attributes":{"id":"asset:671f7ed3bc105f6067d39596","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"14255602","fields":{}}},{"type":"material","id":"batch:671f7ed3bc105f6067d39597","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7ed3bc105f6067d39597"},"attributes":{"type":"batch","eid":"batch:671f7ed3bc105f6067d39597","name":"ORM-0516028-001","digest":"31740347","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516028-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T12:08:51.701Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-10-28 14:11:22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ORM-0516029</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>201</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7f691a12207a92bcb02c"},"data":{"type":"material","id":"asset:671f7f691a12207a92bcb02c","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7f691a12207a92bcb02c"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f7f691a12207a92bcb02c","id":"asset:671f7f691a12207a92bcb02c","eid":"asset:671f7f691a12207a92bcb02c","name":"ORM-0516029","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T12:11:21.829Z","editedAt":"2024-10-28T12:11:21.829Z","type":"asset","digest":"39073269","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516029"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f7f6a1a12207a92bcb02d","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7f6a1a12207a92bcb02d"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7f691a12207a92bcb02c/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f7f691a12207a92bcb02c"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f7f6a1a12207a92bcb02d","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7f6a1a12207a92bcb02d"},"attributes":{"type":"batch","eid":"batch:671f7f6a1a12207a92bcb02d","name":"ORM-0516029-001","digest":"88943943","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516029-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T12:11:22.157Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"60908944","fields":{}}},{"type":"materialDrawing","id":"asset:671f7f691a12207a92bcb02c","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7f691a12207a92bcb02c/drawing?format=cdxml"},"attributes":{"id":"asset:671f7f691a12207a92bcb02c","type":"CHEMICAL_DRAWING"}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-10-28 14:11:25</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ORM-0516030</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>201</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7f6cb1b4403b714883c4"},"data":{"type":"material","id":"asset:671f7f6cb1b4403b714883c4","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7f6cb1b4403b714883c4"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f7f6cb1b4403b714883c4","id":"asset:671f7f6cb1b4403b714883c4","eid":"asset:671f7f6cb1b4403b714883c4","name":"ORM-0516030","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T12:11:24.560Z","editedAt":"2024-10-28T12:11:24.560Z","type":"asset","digest":"92981491","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516030"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f7f6cb1b4403b714883c5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7f6cb1b4403b714883c5"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7f6cb1b4403b714883c4/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f7f6cb1b4403b714883c4"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f7f6cb1b4403b714883c4","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f7f6cb1b4403b714883c4/drawing?format=cdxml"},"attributes":{"id":"asset:671f7f6cb1b4403b714883c4","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"60908944","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}},{"type":"material","id":"batch:671f7f6cb1b4403b714883c5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f7f6cb1b4403b714883c5"},"attributes":{"type":"batch","eid":"batch:671f7f6cb1b4403b714883c5","name":"ORM-0516030-001","digest":"70961365","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516030-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T12:11:24.896Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-10-28 14:15:54</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ORM-0516031</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>201</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f8079b0480736afa1ed44"},"data":{"type":"material","id":"asset:671f8079b0480736afa1ed44","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f8079b0480736afa1ed44"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f8079b0480736afa1ed44","id":"asset:671f8079b0480736afa1ed44","eid":"asset:671f8079b0480736afa1ed44","name":"ORM-0516031","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T12:15:53.620Z","editedAt":"2024-10-28T12:15:53.620Z","type":"asset","digest":"32829639","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516031"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f8079b0480736afa1ed45","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f8079b0480736afa1ed45"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f8079b0480736afa1ed44/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f8079b0480736afa1ed44"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f8079b0480736afa1ed44","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f8079b0480736afa1ed44/drawing?format=cdxml"},"attributes":{"id":"asset:671f8079b0480736afa1ed44","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:671f8079b0480736afa1ed45","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f8079b0480736afa1ed45"},"attributes":{"type":"batch","eid":"batch:671f8079b0480736afa1ed45","name":"ORM-0516031-001","digest":"54132224","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516031-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T12:15:53.873Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"87595100","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-10-28 14:15:57</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ORM-0516032</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>201</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f807cb1b4403b714883c6"},"data":{"type":"material","id":"asset:671f807cb1b4403b714883c6","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f807cb1b4403b714883c6"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f807cb1b4403b714883c6","id":"asset:671f807cb1b4403b714883c6","eid":"asset:671f807cb1b4403b714883c6","name":"ORM-0516032","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T12:15:56.456Z","editedAt":"2024-10-28T12:15:56.456Z","type":"asset","digest":"97277765","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516032"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f807cb1b4403b714883c7","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f807cb1b4403b714883c7"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f807cb1b4403b714883c6/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f807cb1b4403b714883c6"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f807cb1b4403b714883c6","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f807cb1b4403b714883c6/drawing?format=cdxml"},"attributes":{"id":"asset:671f807cb1b4403b714883c6","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"87595100","fields":{}}},{"type":"material","id":"batch:671f807cb1b4403b714883c7","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f807cb1b4403b714883c7"},"attributes":{"type":"batch","eid":"batch:671f807cb1b4403b714883c7","name":"ORM-0516032-001","digest":"57645639","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516032-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T12:15:56.735Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-10-28 14:19:19</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ORM-0516033</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>201</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f8146b0480736afa1ed46"},"data":{"type":"material","id":"asset:671f8146b0480736afa1ed46","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f8146b0480736afa1ed46"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f8146b0480736afa1ed46","id":"asset:671f8146b0480736afa1ed46","eid":"asset:671f8146b0480736afa1ed46","name":"ORM-0516033","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T12:19:19.039Z","editedAt":"2024-10-28T12:19:19.039Z","type":"asset","digest":"49384601","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516033"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f8147b0480736afa1ed47","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f8147b0480736afa1ed47"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f8146b0480736afa1ed46/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f8146b0480736afa1ed46"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f8147b0480736afa1ed47","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f8147b0480736afa1ed47"},"attributes":{"type":"batch","eid":"batch:671f8147b0480736afa1ed47","name":"ORM-0516033-001","digest":"19904135","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516033-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T12:19:19.543Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:671f8146b0480736afa1ed46","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f8146b0480736afa1ed46/drawing?format=cdxml"},"attributes":{"id":"asset:671f8146b0480736afa1ed46","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"91486890","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024-10-28 14:19:22</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ORM-0516034</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>201</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f8149b0480736afa1ed48"},"data":{"type":"material","id":"asset:671f8149b0480736afa1ed48","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f8149b0480736afa1ed48"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f8149b0480736afa1ed48","id":"asset:671f8149b0480736afa1ed48","eid":"asset:671f8149b0480736afa1ed48","name":"ORM-0516034","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T12:19:21.911Z","editedAt":"2024-10-28T12:19:21.911Z","type":"asset","digest":"78882672","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516034"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f814ab0480736afa1ed49","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f814ab0480736afa1ed49"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f8149b0480736afa1ed48/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f8149b0480736afa1ed48"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f8149b0480736afa1ed48","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f8149b0480736afa1ed48/drawing?format=cdxml"},"attributes":{"id":"asset:671f8149b0480736afa1ed48","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:671f814ab0480736afa1ed49","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f814ab0480736afa1ed49"},"attributes":{"type":"batch","eid":"batch:671f814ab0480736afa1ed49","name":"ORM-0516034-001","digest":"47032039","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516034-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T12:19:22.155Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"91486890","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024-10-28 14:22:49</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ORM-0516035</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>201</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f8218bc105f6067d39598"},"data":{"type":"material","id":"asset:671f8218bc105f6067d39598","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f8218bc105f6067d39598"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f8218bc105f6067d39598","id":"asset:671f8218bc105f6067d39598","eid":"asset:671f8218bc105f6067d39598","name":"ORM-0516035","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T12:22:48.458Z","editedAt":"2024-10-28T12:22:48.458Z","type":"asset","digest":"85137934","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516035"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f8218bc105f6067d39599","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f8218bc105f6067d39599"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f8218bc105f6067d39598/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f8218bc105f6067d39598"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f8218bc105f6067d39598","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f8218bc105f6067d39598/drawing?format=cdxml"},"attributes":{"id":"asset:671f8218bc105f6067d39598","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:671f8218bc105f6067d39599","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f8218bc105f6067d39599"},"attributes":{"type":"batch","eid":"batch:671f8218bc105f6067d39599","name":"ORM-0516035-001","digest":"53553725","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516035-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T12:22:48.782Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"64152328","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024-10-28 14:22:51</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ORM-0516036</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>201</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f821baee6dd75754a8e20"},"data":{"type":"material","id":"asset:671f821baee6dd75754a8e20","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f821baee6dd75754a8e20"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f821baee6dd75754a8e20","id":"asset:671f821baee6dd75754a8e20","eid":"asset:671f821baee6dd75754a8e20","name":"ORM-0516036","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T12:22:51.129Z","editedAt":"2024-10-28T12:22:51.129Z","type":"asset","digest":"61693945","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516036"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f821baee6dd75754a8e21","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f821baee6dd75754a8e21"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f821baee6dd75754a8e20/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f821baee6dd75754a8e20"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f821baee6dd75754a8e20","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f821baee6dd75754a8e20/drawing?format=cdxml"},"attributes":{"id":"asset:671f821baee6dd75754a8e20","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"64152328","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}},{"type":"material","id":"batch:671f821baee6dd75754a8e21","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f821baee6dd75754a8e21"},"attributes":{"type":"batch","eid":"batch:671f821baee6dd75754a8e21","name":"ORM-0516036-001","digest":"28079002","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516036-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T12:22:51.562Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2024-10-28 14:25:47</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ORM-0516037</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>201</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f82cabc105f6067d3959a"},"data":{"type":"material","id":"asset:671f82cabc105f6067d3959a","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f82cabc105f6067d3959a"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f82cabc105f6067d3959a","id":"asset:671f82cabc105f6067d3959a","eid":"asset:671f82cabc105f6067d3959a","name":"ORM-0516037","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T12:25:46.994Z","editedAt":"2024-10-28T12:25:46.994Z","type":"asset","digest":"32570286","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516037"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f82cbbc105f6067d3959b","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f82cbbc105f6067d3959b"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f82cabc105f6067d3959a/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f82cabc105f6067d3959a"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671f82cabc105f6067d3959a","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f82cabc105f6067d3959a/drawing?format=cdxml"},"attributes":{"id":"asset:671f82cabc105f6067d3959a","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:671f82cbbc105f6067d3959b","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f82cbbc105f6067d3959b"},"attributes":{"type":"batch","eid":"batch:671f82cbbc105f6067d3959b","name":"ORM-0516037-001","digest":"35567767","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516037-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T12:25:47.534Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"43450757","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2024-10-28 14:25:51</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ORM-0516038</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>201</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f82cebc105f6067d3959c"},"data":{"type":"material","id":"asset:671f82cebc105f6067d3959c","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f82cebc105f6067d3959c"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671f82cebc105f6067d3959c","id":"asset:671f82cebc105f6067d3959c","eid":"asset:671f82cebc105f6067d3959c","name":"ORM-0516038","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T12:25:50.533Z","editedAt":"2024-10-28T12:25:50.533Z","type":"asset","digest":"46851869","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516038"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671f82cebc105f6067d3959d","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f82cebc105f6067d3959d"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f82cebc105f6067d3959c/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671f82cebc105f6067d3959c"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671f82cebc105f6067d3959d","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671f82cebc105f6067d3959d"},"attributes":{"type":"batch","eid":"batch:671f82cebc105f6067d3959d","name":"ORM-0516038-001","digest":"75711129","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516038-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T12:25:50.803Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"43450757","fields":{}}},{"type":"materialDrawing","id":"asset:671f82cebc105f6067d3959c","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671f82cebc105f6067d3959c/drawing?format=cdxml"},"attributes":{"id":"asset:671f82cebc105f6067d3959c","type":"CHEMICAL_DRAWING"}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:26:15</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ORM-0516039</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>201</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbb266395b975bca22fa6"},"data":{"type":"material","id":"asset:671fbb266395b975bca22fa6","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbb266395b975bca22fa6"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fbb266395b975bca22fa6","id":"asset:671fbb266395b975bca22fa6","eid":"asset:671fbb266395b975bca22fa6","name":"ORM-0516039","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T16:26:14.940Z","editedAt":"2024-10-28T16:26:14.940Z","type":"asset","digest":"12187470","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516039"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fbb276395b975bca22fa7","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbb276395b975bca22fa7"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbb266395b975bca22fa6/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fbb266395b975bca22fa6"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671fbb276395b975bca22fa7","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbb276395b975bca22fa7"},"attributes":{"type":"batch","eid":"batch:671fbb276395b975bca22fa7","name":"ORM-0516039-001","digest":"25167302","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516039-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T16:26:15.476Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:671fbb266395b975bca22fa6","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbb266395b975bca22fa6/drawing?format=cdxml"},"attributes":{"id":"asset:671fbb266395b975bca22fa6","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"92842690","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:26:19</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ORM-0516040</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>201</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbb2b1a12207a92bcb04a"},"data":{"type":"material","id":"asset:671fbb2b1a12207a92bcb04a","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbb2b1a12207a92bcb04a"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fbb2b1a12207a92bcb04a","id":"asset:671fbb2b1a12207a92bcb04a","eid":"asset:671fbb2b1a12207a92bcb04a","name":"ORM-0516040","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T16:26:19.155Z","editedAt":"2024-10-28T16:26:19.155Z","type":"asset","digest":"87571093","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516040"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fbb2b1a12207a92bcb04b","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbb2b1a12207a92bcb04b"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbb2b1a12207a92bcb04a/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fbb2b1a12207a92bcb04a"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671fbb2b1a12207a92bcb04b","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbb2b1a12207a92bcb04b"},"attributes":{"type":"batch","eid":"batch:671fbb2b1a12207a92bcb04b","name":"ORM-0516040-001","digest":"50311816","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516040-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T16:26:19.567Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"92842690","fields":{}}},{"type":"materialDrawing","id":"asset:671fbb2b1a12207a92bcb04a","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbb2b1a12207a92bcb04a/drawing?format=cdxml"},"attributes":{"id":"asset:671fbb2b1a12207a92bcb04a","type":"CHEMICAL_DRAWING"}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:32:50</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ORM-0516041</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>201</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbcb1b0480736afa1ed57"},"data":{"type":"material","id":"asset:671fbcb1b0480736afa1ed57","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbcb1b0480736afa1ed57"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fbcb1b0480736afa1ed57","id":"asset:671fbcb1b0480736afa1ed57","eid":"asset:671fbcb1b0480736afa1ed57","name":"ORM-0516041","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T16:32:49.831Z","editedAt":"2024-10-28T16:32:49.831Z","type":"asset","digest":"34098325","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516041"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fbcb2b0480736afa1ed58","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbcb2b0480736afa1ed58"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbcb1b0480736afa1ed57/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fbcb1b0480736afa1ed57"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671fbcb2b0480736afa1ed58","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbcb2b0480736afa1ed58"},"attributes":{"type":"batch","eid":"batch:671fbcb2b0480736afa1ed58","name":"ORM-0516041-001","digest":"38044239","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516041-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T16:32:50.245Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:671fbcb1b0480736afa1ed57","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbcb1b0480736afa1ed57/drawing?format=cdxml"},"attributes":{"id":"asset:671fbcb1b0480736afa1ed57","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"89775020","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:32:55</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ORM-0516042</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>201</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbcb5b0480736afa1ed59"},"data":{"type":"material","id":"asset:671fbcb5b0480736afa1ed59","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbcb5b0480736afa1ed59"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fbcb5b0480736afa1ed59","id":"asset:671fbcb5b0480736afa1ed59","eid":"asset:671fbcb5b0480736afa1ed59","name":"ORM-0516042","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T16:32:53.641Z","editedAt":"2024-10-28T16:32:53.641Z","type":"asset","digest":"48146426","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516042"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fbcb6b0480736afa1ed5a","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbcb6b0480736afa1ed5a"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbcb5b0480736afa1ed59/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fbcb5b0480736afa1ed59"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671fbcb6b0480736afa1ed5a","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbcb6b0480736afa1ed5a"},"attributes":{"type":"batch","eid":"batch:671fbcb6b0480736afa1ed5a","name":"ORM-0516042-001","digest":"32458112","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516042-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T16:32:54.765Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"89775020","fields":{}}},{"type":"materialDrawing","id":"asset:671fbcb5b0480736afa1ed59","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbcb5b0480736afa1ed59/drawing?format=cdxml"},"attributes":{"id":"asset:671fbcb5b0480736afa1ed59","type":"CHEMICAL_DRAWING"}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:36:25</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ORM-0516041</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:36:27</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ORM-0516042</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:37:56</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ORM-0516043</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>201</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbde36395b975bca22fa8"},"data":{"type":"material","id":"asset:671fbde36395b975bca22fa8","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbde36395b975bca22fa8"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fbde36395b975bca22fa8","id":"asset:671fbde36395b975bca22fa8","eid":"asset:671fbde36395b975bca22fa8","name":"ORM-0516043","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T16:37:55.950Z","editedAt":"2024-10-28T16:37:55.950Z","type":"asset","digest":"96340068","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516043"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fbde46395b975bca22fa9","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbde46395b975bca22fa9"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbde36395b975bca22fa8/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fbde36395b975bca22fa8"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671fbde46395b975bca22fa9","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbde46395b975bca22fa9"},"attributes":{"type":"batch","eid":"batch:671fbde46395b975bca22fa9","name":"ORM-0516043-001","digest":"88751927","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516043-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T16:37:56.524Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"56766878","fields":{}}},{"type":"materialDrawing","id":"asset:671fbde36395b975bca22fa8","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbde36395b975bca22fa8/drawing?format=cdxml"},"attributes":{"id":"asset:671fbde36395b975bca22fa8","type":"CHEMICAL_DRAWING"}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:37:59</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ORM-0516044</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>201</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbde6bc105f6067d3968c"},"data":{"type":"material","id":"asset:671fbde6bc105f6067d3968c","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbde6bc105f6067d3968c"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fbde6bc105f6067d3968c","id":"asset:671fbde6bc105f6067d3968c","eid":"asset:671fbde6bc105f6067d3968c","name":"ORM-0516044","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T16:37:59.074Z","editedAt":"2024-10-28T16:37:59.074Z","type":"asset","digest":"42846302","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516044"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fbde7bc105f6067d3968d","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbde7bc105f6067d3968d"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbde6bc105f6067d3968c/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fbde6bc105f6067d3968c"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671fbde6bc105f6067d3968c","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbde6bc105f6067d3968c/drawing?format=cdxml"},"attributes":{"id":"asset:671fbde6bc105f6067d3968c","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:671fbde7bc105f6067d3968d","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbde7bc105f6067d3968d"},"attributes":{"type":"batch","eid":"batch:671fbde7bc105f6067d3968d","name":"ORM-0516044-001","digest":"50695646","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516044-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T16:37:59.527Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"56766878","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:40:29</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ORM-0516045</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>201</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbe7c6395b975bca22faa"},"data":{"type":"material","id":"asset:671fbe7c6395b975bca22faa","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbe7c6395b975bca22faa"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fbe7c6395b975bca22faa","id":"asset:671fbe7c6395b975bca22faa","eid":"asset:671fbe7c6395b975bca22faa","name":"ORM-0516045","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T16:40:28.922Z","editedAt":"2024-10-28T16:40:28.922Z","type":"asset","digest":"61758530","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516045"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fbe7d6395b975bca22fab","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbe7d6395b975bca22fab"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbe7c6395b975bca22faa/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fbe7c6395b975bca22faa"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671fbe7d6395b975bca22fab","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbe7d6395b975bca22fab"},"attributes":{"type":"batch","eid":"batch:671fbe7d6395b975bca22fab","name":"ORM-0516045-001","digest":"78963868","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516045-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T16:40:29.549Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:671fbe7c6395b975bca22faa","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbe7c6395b975bca22faa/drawing?format=cdxml"},"attributes":{"id":"asset:671fbe7c6395b975bca22faa","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"23597350","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:40:32</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ORM-0516046</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>201</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbe7fb0480736afa1ed5b"},"data":{"type":"material","id":"asset:671fbe7fb0480736afa1ed5b","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbe7fb0480736afa1ed5b"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fbe7fb0480736afa1ed5b","id":"asset:671fbe7fb0480736afa1ed5b","eid":"asset:671fbe7fb0480736afa1ed5b","name":"ORM-0516046","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T16:40:31.934Z","editedAt":"2024-10-28T16:40:31.934Z","type":"asset","digest":"89117305","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516046"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fbe80b0480736afa1ed5c","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbe80b0480736afa1ed5c"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbe7fb0480736afa1ed5b/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fbe7fb0480736afa1ed5b"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"23597350","fields":{}}},{"type":"material","id":"batch:671fbe80b0480736afa1ed5c","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbe80b0480736afa1ed5c"},"attributes":{"type":"batch","eid":"batch:671fbe80b0480736afa1ed5c","name":"ORM-0516046-001","digest":"78130737","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516046-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T16:40:32.522Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}},{"type":"materialDrawing","id":"asset:671fbe7fb0480736afa1ed5b","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbe7fb0480736afa1ed5b/drawing?format=cdxml"},"attributes":{"id":"asset:671fbe7fb0480736afa1ed5b","type":"CHEMICAL_DRAWING"}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:43:38</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ORM-0516047</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>201</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbf381a12207a92bcb04c"},"data":{"type":"material","id":"asset:671fbf381a12207a92bcb04c","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbf381a12207a92bcb04c"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fbf381a12207a92bcb04c","id":"asset:671fbf381a12207a92bcb04c","eid":"asset:671fbf381a12207a92bcb04c","name":"ORM-0516047","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T16:43:36.947Z","editedAt":"2024-10-28T16:43:36.947Z","type":"asset","digest":"20274199","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516047"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fbf391a12207a92bcb04d","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbf391a12207a92bcb04d"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbf381a12207a92bcb04c/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fbf381a12207a92bcb04c"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671fbf381a12207a92bcb04c","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fbf381a12207a92bcb04c/drawing?format=cdxml"},"attributes":{"id":"asset:671fbf381a12207a92bcb04c","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:671fbf391a12207a92bcb04d","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fbf391a12207a92bcb04d"},"attributes":{"type":"batch","eid":"batch:671fbf391a12207a92bcb04d","name":"ORM-0516047-001","digest":"78933713","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516047-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T16:43:37.594Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"99708135","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:43:39</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Failed upload</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:50:00</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ORM-0516048</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>201</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc0b7b0480736afa1ed5d"},"data":{"type":"material","id":"asset:671fc0b7b0480736afa1ed5d","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc0b7b0480736afa1ed5d"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fc0b7b0480736afa1ed5d","id":"asset:671fc0b7b0480736afa1ed5d","eid":"asset:671fc0b7b0480736afa1ed5d","name":"ORM-0516048","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T16:49:59.433Z","editedAt":"2024-10-28T16:49:59.433Z","type":"asset","digest":"23474790","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516048"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fc0b7b0480736afa1ed5e","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc0b7b0480736afa1ed5e"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc0b7b0480736afa1ed5d/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fc0b7b0480736afa1ed5d"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671fc0b7b0480736afa1ed5e","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc0b7b0480736afa1ed5e"},"attributes":{"type":"batch","eid":"batch:671fc0b7b0480736afa1ed5e","name":"ORM-0516048-001","digest":"52295424","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516048-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T16:49:59.749Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Chembridge"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:671fc0b7b0480736afa1ed5d","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc0b7b0480736afa1ed5d/drawing?format=cdxml"},"attributes":{"id":"asset:671fc0b7b0480736afa1ed5d","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"93001458","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:50:02</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ORM-0516049</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>201</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc0ba6395b975bca22fac"},"data":{"type":"material","id":"asset:671fc0ba6395b975bca22fac","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc0ba6395b975bca22fac"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fc0ba6395b975bca22fac","id":"asset:671fc0ba6395b975bca22fac","eid":"asset:671fc0ba6395b975bca22fac","name":"ORM-0516049","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T16:50:02.423Z","editedAt":"2024-10-28T16:50:02.423Z","type":"asset","digest":"23309597","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516049"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fc0ba6395b975bca22fad","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc0ba6395b975bca22fad"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc0ba6395b975bca22fac/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fc0ba6395b975bca22fac"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671fc0ba6395b975bca22fad","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc0ba6395b975bca22fad"},"attributes":{"type":"batch","eid":"batch:671fc0ba6395b975bca22fad","name":"ORM-0516049-001","digest":"26431697","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516049-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T16:50:02.676Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:671fc0ba6395b975bca22fac","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc0ba6395b975bca22fac/drawing?format=cdxml"},"attributes":{"id":"asset:671fc0ba6395b975bca22fac","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"93001458","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:54:30</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ORM-0516050</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>201</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc1c5b1b4403b714883d5"},"data":{"type":"material","id":"asset:671fc1c5b1b4403b714883d5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc1c5b1b4403b714883d5"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fc1c5b1b4403b714883d5","id":"asset:671fc1c5b1b4403b714883d5","eid":"asset:671fc1c5b1b4403b714883d5","name":"ORM-0516050","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T16:54:30.031Z","editedAt":"2024-10-28T16:54:30.031Z","type":"asset","digest":"36116978","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516050"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fc1c6b1b4403b714883d6","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc1c6b1b4403b714883d6"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc1c5b1b4403b714883d5/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fc1c5b1b4403b714883d5"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671fc1c5b1b4403b714883d5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc1c5b1b4403b714883d5/drawing?format=cdxml"},"attributes":{"id":"asset:671fc1c5b1b4403b714883d5","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:671fc1c6b1b4403b714883d6","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc1c6b1b4403b714883d6"},"attributes":{"type":"batch","eid":"batch:671fc1c6b1b4403b714883d6","name":"ORM-0516050-001","digest":"77100045","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516050-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T16:54:30.546Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Chembridge"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"57392994","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:54:33</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ORM-0516051</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>201</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc1c86395b975bca22fae"},"data":{"type":"material","id":"asset:671fc1c86395b975bca22fae","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc1c86395b975bca22fae"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fc1c86395b975bca22fae","id":"asset:671fc1c86395b975bca22fae","eid":"asset:671fc1c86395b975bca22fae","name":"ORM-0516051","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T16:54:32.889Z","editedAt":"2024-10-28T16:54:32.889Z","type":"asset","digest":"67961174","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516051"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fc1c96395b975bca22faf","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc1c96395b975bca22faf"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc1c86395b975bca22fae/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fc1c86395b975bca22fae"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671fc1c86395b975bca22fae","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc1c86395b975bca22fae/drawing?format=cdxml"},"attributes":{"id":"asset:671fc1c86395b975bca22fae","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"57392994","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}},{"type":"material","id":"batch:671fc1c96395b975bca22faf","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc1c96395b975bca22faf"},"attributes":{"type":"batch","eid":"batch:671fc1c96395b975bca22faf","name":"ORM-0516051-001","digest":"28319454","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516051-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T16:54:33.137Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:57:24</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ORM-0516052</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>201</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc2731a12207a92bcb052"},"data":{"type":"material","id":"asset:671fc2731a12207a92bcb052","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc2731a12207a92bcb052"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fc2731a12207a92bcb052","id":"asset:671fc2731a12207a92bcb052","eid":"asset:671fc2731a12207a92bcb052","name":"ORM-0516052","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T16:57:23.471Z","editedAt":"2024-10-28T16:57:23.471Z","type":"asset","digest":"67321612","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516052"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fc2731a12207a92bcb053","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc2731a12207a92bcb053"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc2731a12207a92bcb052/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fc2731a12207a92bcb052"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671fc2731a12207a92bcb053","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc2731a12207a92bcb053"},"attributes":{"type":"batch","eid":"batch:671fc2731a12207a92bcb053","name":"ORM-0516052-001","digest":"64561973","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516052-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T16:57:23.835Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Chembridge"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"98325160","fields":{}}},{"type":"materialDrawing","id":"asset:671fc2731a12207a92bcb052","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc2731a12207a92bcb052/drawing?format=cdxml"},"attributes":{"id":"asset:671fc2731a12207a92bcb052","type":"CHEMICAL_DRAWING"}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:57:27</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ORM-0516053</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>201</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc2766395b975bca22fb0"},"data":{"type":"material","id":"asset:671fc2766395b975bca22fb0","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc2766395b975bca22fb0"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fc2766395b975bca22fb0","id":"asset:671fc2766395b975bca22fb0","eid":"asset:671fc2766395b975bca22fb0","name":"ORM-0516053","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T16:57:26.527Z","editedAt":"2024-10-28T16:57:26.527Z","type":"asset","digest":"17812481","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516053"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fc2766395b975bca22fb1","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc2766395b975bca22fb1"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc2766395b975bca22fb0/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fc2766395b975bca22fb0"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671fc2766395b975bca22fb0","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc2766395b975bca22fb0/drawing?format=cdxml"},"attributes":{"id":"asset:671fc2766395b975bca22fb0","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"98325160","fields":{}}},{"type":"material","id":"batch:671fc2766395b975bca22fb1","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc2766395b975bca22fb1"},"attributes":{"type":"batch","eid":"batch:671fc2766395b975bca22fb1","name":"ORM-0516053-001","digest":"75018592","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516053-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T16:57:26.775Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"ChemDiv"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:58:42</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ORM-0516054</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>201</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc2c11a12207a92bcb054"},"data":{"type":"material","id":"asset:671fc2c11a12207a92bcb054","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc2c11a12207a92bcb054"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fc2c11a12207a92bcb054","id":"asset:671fc2c11a12207a92bcb054","eid":"asset:671fc2c11a12207a92bcb054","name":"ORM-0516054","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T16:58:41.891Z","editedAt":"2024-10-28T16:58:41.891Z","type":"asset","digest":"86249401","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516054"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fc2c21a12207a92bcb055","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc2c21a12207a92bcb055"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc2c11a12207a92bcb054/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fc2c11a12207a92bcb054"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671fc2c21a12207a92bcb055","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc2c21a12207a92bcb055"},"attributes":{"type":"batch","eid":"batch:671fc2c21a12207a92bcb055","name":"ORM-0516054-001","digest":"51522546","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":"test library ID"},"Name":{"value":"ORM-0516054-001"},"Project":{"value":"YAP-TEAD"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T16:58:42.429Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Chembridge"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:671fc2c11a12207a92bcb054","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc2c11a12207a92bcb054/drawing?format=cdxml"},"attributes":{"id":"asset:671fc2c11a12207a92bcb054","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"71686129","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:58:45</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ORM-0516055</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>201</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc2c4b1b4403b714883d9"},"data":{"type":"material","id":"asset:671fc2c4b1b4403b714883d9","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc2c4b1b4403b714883d9"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fc2c4b1b4403b714883d9","id":"asset:671fc2c4b1b4403b714883d9","eid":"asset:671fc2c4b1b4403b714883d9","name":"ORM-0516055","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T16:58:44.799Z","editedAt":"2024-10-28T16:58:44.799Z","type":"asset","digest":"92009000","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516055"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fc2c4b1b4403b714883da","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc2c4b1b4403b714883da"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc2c4b1b4403b714883d9/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fc2c4b1b4403b714883d9"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:671fc2c4b1b4403b714883d9","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc2c4b1b4403b714883d9/drawing?format=cdxml"},"attributes":{"id":"asset:671fc2c4b1b4403b714883d9","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"batch:671fc2c4b1b4403b714883da","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc2c4b1b4403b714883da"},"attributes":{"type":"batch","eid":"batch:671fc2c4b1b4403b714883da","name":"ORM-0516055-001","digest":"93721643","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":"test library ID"},"Name":{"value":"ORM-0516055-001"},"Project":{"value":"YAP-TEAD"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T16:58:45.059Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"ChemDiv"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"71686129","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/General Log/General-Log.xlsx
+++ b/logs/General Log/General-Log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4845,6 +4845,86 @@
         </is>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2024-10-28 19:27:52</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ORM-0516056</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>201</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc997b0480736afa1ed64"},"data":{"type":"material","id":"asset:671fc997b0480736afa1ed64","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc997b0480736afa1ed64"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fc997b0480736afa1ed64","id":"asset:671fc997b0480736afa1ed64","eid":"asset:671fc997b0480736afa1ed64","name":"ORM-0516056","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-28T17:27:51.830Z","editedAt":"2024-10-28T17:27:51.830Z","type":"asset","digest":"66868543","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516056"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fc998b0480736afa1ed65","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc998b0480736afa1ed65"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc997b0480736afa1ed64/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fc997b0480736afa1ed64"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671fc998b0480736afa1ed65","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc998b0480736afa1ed65"},"attributes":{"type":"batch","eid":"batch:671fc998b0480736afa1ed65","name":"ORM-0516056-001","digest":"83571980","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516056-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T17:27:52.147Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Chembridge"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"59951413","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}},{"type":"materialDrawing","id":"asset:671fc997b0480736afa1ed64","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc997b0480736afa1ed64/drawing?format=cdxml"},"attributes":{"id":"asset:671fc997b0480736afa1ed64","type":"CHEMICAL_DRAWING"}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2024-10-28 19:27:56</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ORM-0516057</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>201</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc99b1a12207a92bcb05a"},"data":{"type":"material","id":"asset:671fc99b1a12207a92bcb05a","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc99b1a12207a92bcb05a"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"671fc99b1a12207a92bcb05a","id":"asset:671fc99b1a12207a92bcb05a","eid":"asset:671fc99b1a12207a92bcb05a","name":"ORM-0516057","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-28T17:27:55.840Z","editedAt":"2024-10-28T17:27:55.840Z","type":"asset","digest":"93385593","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516057"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:671fc99c1a12207a92bcb05b","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc99c1a12207a92bcb05b"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc99b1a12207a92bcb05a/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:671fc99b1a12207a92bcb05a"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:671fc99c1a12207a92bcb05b","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:671fc99c1a12207a92bcb05b"},"attributes":{"type":"batch","eid":"batch:671fc99c1a12207a92bcb05b","name":"ORM-0516057-001","digest":"59455064","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516057-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-28T17:27:56.113Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"ChemDiv"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"59951413","fields":{}}},{"type":"materialDrawing","id":"asset:671fc99b1a12207a92bcb05a","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:671fc99b1a12207a92bcb05a/drawing?format=cdxml"},"attributes":{"id":"asset:671fc99b1a12207a92bcb05a","type":"CHEMICAL_DRAWING"}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/General Log/General-Log.xlsx
+++ b/logs/General Log/General-Log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4925,6 +4925,166 @@
         </is>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2024-10-29 09:26:35</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ORM-0516058</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>MCULE-2227031507</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>C21H17CLN2O2</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>201</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:67208e2aaee6dd75754a8e82"},"data":{"type":"material","id":"asset:67208e2aaee6dd75754a8e82","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:67208e2aaee6dd75754a8e82"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"67208e2aaee6dd75754a8e82","id":"asset:67208e2aaee6dd75754a8e82","eid":"asset:67208e2aaee6dd75754a8e82","name":"ORM-0516058","synonyms":["C(=O)(NNC(=O)CC1CCC(C2CCCCC2)CC1)C1CCC(CC1)CL","C21H17CLN2O2"],"description":"","createdAt":"2024-10-29T07:26:34.581Z","editedAt":"2024-10-29T07:26:34.581Z","type":"asset","digest":"48902017","fields":{"Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Description":{"value":""},"Exact Mass":{"value":"364.09786"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"364.83 g/mol"},"Name":{"value":"ORM-0516058"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:67208e2baee6dd75754a8e83","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:67208e2baee6dd75754a8e83"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:67208e2aaee6dd75754a8e82/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:67208e2aaee6dd75754a8e82"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"materialDrawing","id":"asset:67208e2aaee6dd75754a8e82","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:67208e2aaee6dd75754a8e82/drawing?format=cdxml"},"attributes":{"id":"asset:67208e2aaee6dd75754a8e82","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"14845259","fields":{}}},{"type":"material","id":"batch:67208e2baee6dd75754a8e83","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:67208e2baee6dd75754a8e83"},"attributes":{"type":"batch","eid":"batch:67208e2baee6dd75754a8e83","name":"ORM-0516058-001","digest":"76236924","fields":{"Batch Chemical Name":{"value":"N'-(2-([1,1'-biphenyl]-4-yl)acetyl)-4-chlorobenzohydrazide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;21&lt;/sub&gt;H&lt;sub&gt;17&lt;/sub&gt;ClN&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"364.83 g/mol"},"Library ID":{"value":"test library ID"},"Name":{"value":"ORM-0516058-001"},"Project":{"value":"TRPA1"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-29T07:26:35.597Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Chembridge"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2024-10-29 09:26:39</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ORM-0516059</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>MCULE-3988458386</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>C16H14CLN5O</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/MCULE/mcule_test.sdf</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>201</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:67208e2ebc105f6067d396d4"},"data":{"type":"material","id":"asset:67208e2ebc105f6067d396d4","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:67208e2ebc105f6067d396d4"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"67208e2ebc105f6067d396d4","id":"asset:67208e2ebc105f6067d396d4","eid":"asset:67208e2ebc105f6067d396d4","name":"ORM-0516059","synonyms":["C1(C([NH]NN1)NC1CCC(CL)CC1)C(=O)NC1CCC(CC1)C","C16H14CLN5O"],"description":"","createdAt":"2024-10-29T07:26:38.554Z","editedAt":"2024-10-29T07:26:38.554Z","type":"asset","digest":"15239092","fields":{"Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Description":{"value":""},"Exact Mass":{"value":"327.08869"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Molecular Weight":{"value":"327.77 g/mol"},"Name":{"value":"ORM-0516059"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:67208e2ebc105f6067d396d5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:67208e2ebc105f6067d396d5"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:67208e2ebc105f6067d396d4/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:67208e2ebc105f6067d396d4"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:67208e2ebc105f6067d396d5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:67208e2ebc105f6067d396d5"},"attributes":{"type":"batch","eid":"batch:67208e2ebc105f6067d396d5","name":"ORM-0516059-001","digest":"32457944","fields":{"Batch Chemical Name":{"value":"5-((4-chlorophenyl)amino)-N-(p-tolyl)-1H-1,2,3-triazole-4-carboxamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;16&lt;/sub&gt;H&lt;sub&gt;14&lt;/sub&gt;ClN&lt;sub&gt;5&lt;/sub&gt;O"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"327.77 g/mol"},"Library ID":{"value":"test library ID"},"Name":{"value":"ORM-0516059-001"},"Project":{"value":"TRPA1"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-29T07:26:38.844Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"ChemDiv"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:67208e2ebc105f6067d396d4","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:67208e2ebc105f6067d396d4/drawing?format=cdxml"},"attributes":{"id":"asset:67208e2ebc105f6067d396d4","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"14845259","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2024-10-29 09:49:51</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ORM-0516060</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Z195631098</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>C18H19CL2N5OS</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>201</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:6720939ebc105f6067d396d6"},"data":{"type":"material","id":"asset:6720939ebc105f6067d396d6","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:6720939ebc105f6067d396d6"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"6720939ebc105f6067d396d6","id":"asset:6720939ebc105f6067d396d6","eid":"asset:6720939ebc105f6067d396d6","name":"ORM-0516060","synonyms":["CN(CC(=O)NC1C(CL)CCCC1CL)CC1NC(N)C2C(C)C(C)SC2N1","C18H19CL2N5OS"],"description":"","createdAt":"2024-10-29T07:49:50.567Z","editedAt":"2024-10-29T07:49:50.567Z","type":"asset","digest":"18926106","fields":{"Chemical Name":{"value":"2-(((4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl)methyl)(methyl)amino)-N-(2,6-dichlorophenyl)acetamide"},"Description":{"value":""},"Exact Mass":{"value":"423.06874"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Molecular Weight":{"value":"424.34 g/mol"},"Name":{"value":"ORM-0516060"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:6720939ebc105f6067d396d7","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:6720939ebc105f6067d396d7"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:6720939ebc105f6067d396d6/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:6720939ebc105f6067d396d6"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:6720939ebc105f6067d396d7","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:6720939ebc105f6067d396d7"},"attributes":{"type":"batch","eid":"batch:6720939ebc105f6067d396d7","name":"ORM-0516060-001","digest":"70352925","fields":{"Batch Chemical Name":{"value":"2-(((4-amino-5,6-dimethylthieno[2,3-d]pyrimidin-2-yl)methyl)(methyl)amino)-N-(2,6-dichlorophenyl)acetamide"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;18&lt;/sub&gt;H&lt;sub&gt;19&lt;/sub&gt;Cl&lt;sub&gt;2&lt;/sub&gt;N&lt;sub&gt;5&lt;/sub&gt;OS"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"424.34 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516060-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-29T07:49:50.893Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:6720939ebc105f6067d396d6","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:6720939ebc105f6067d396d6/drawing?format=cdxml"},"attributes":{"id":"asset:6720939ebc105f6067d396d6","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"83356657","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2024-10-29 09:49:54</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ORM-0516061</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Z2754556176</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>C17H28N4O2</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>/home/robekott/ERAT/examples/compound_test.sdf</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>201</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:672093a1b1b4403b71488418"},"data":{"type":"material","id":"asset:672093a1b1b4403b71488418","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:672093a1b1b4403b71488418"},"attributes":{"library":"Compounds","assetTypeId":"5d6e0287ee35880008c18db5","assetId":"672093a1b1b4403b71488418","id":"asset:672093a1b1b4403b71488418","eid":"asset:672093a1b1b4403b71488418","name":"ORM-0516061","synonyms":["COCCN1CCNC1C1N(CC1(C)C)C(=O)CC1(CN)CC1","C17H28N4O2"],"description":"","createdAt":"2024-10-29T07:49:53.428Z","editedAt":"2024-10-29T07:49:53.428Z","type":"asset","digest":"12433186","fields":{"Chemical Name":{"value":"2-(1-(aminomethyl)cyclopropyl)-1-(2-(1-(2-methoxyethyl)-1H-imidazol-2-yl)-3,3-dimethylazetidin-1-yl)ethan-1-one"},"Description":{"value":""},"Exact Mass":{"value":"320.22123"},"Material Library Type":{"value":"Compounds"},"Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Molecular Weight":{"value":"320.44 g/mol"},"Name":{"value":"ORM-0516061"},"Stereochemistry":{"value":"No stereochemistry"}},"flags":{"canTrash":true}},"relationships":{"batches":{"data":[{"type":"material","id":"batch:672093a1b1b4403b71488419","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:672093a1b1b4403b71488419"}}}]},"ancestors":{"data":[{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","meta":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"}}}]},"chemicalDrawing":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:672093a1b1b4403b71488418/drawing?format=cdxml"},"data":{"type":"materialDrawing","id":"asset:672093a1b1b4403b71488418"}},"createdBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"editedBy":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}},"owner":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"data":{"type":"user","id":"114"}}}},"included":[{"type":"material","id":"batch:672093a1b1b4403b71488419","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/batch:672093a1b1b4403b71488419"},"attributes":{"type":"batch","eid":"batch:672093a1b1b4403b71488419","name":"ORM-0516061-001","digest":"58937377","fields":{"Batch Chemical Name":{"value":"2-(1-(aminomethyl)cyclopropyl)-1-(2-(1-(2-methoxyethyl)-1H-imidazol-2-yl)-3,3-dimethylazetidin-1-yl)ethan-1-one"},"Batch Molecular Formula":{"value":"C&lt;sub&gt;17&lt;/sub&gt;H&lt;sub&gt;28&lt;/sub&gt;N&lt;sub&gt;4&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;"},"Batch Purpose":{"value":"Dummy compound"},"Batch Type":{"value":"Discovery"},"Chemist":{"value":"TestUser MCChemist"},"Description":{"value":""},"Formula Mass":{"value":"320.44 g/mol"},"Library ID":{"value":""},"Name":{"value":"ORM-0516061-001"},"Project":{"value":"Unspecified"},"Source":{"value":"Internal"},"Submission Date":{"value":"2024-10-29T07:49:53.659Z"},"Submitter":{"value":"{userId=114, userName=timo.kangasperko@orion.fi, flags={isSystemStandardUser=true}, alias=timoka, email=timo.kangasperko@orion.fi, firstName=Timo, lastName=Kangasperko, picture={}, isEnabled=true}"},"Supplier Name":{"value":"Unknown"},"Synthesis Date":{"value":"2011-10-10T14:48Z"}}}},{"type":"materialDrawing","id":"asset:672093a1b1b4403b71488418","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/asset:672093a1b1b4403b71488418/drawing?format=cdxml"},"attributes":{"id":"asset:672093a1b1b4403b71488418","type":"CHEMICAL_DRAWING"}},{"type":"material","id":"assetType:5d6e0287ee35880008c18db5","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/materials/assetType:5d6e0287ee35880008c18db5"},"attributes":{"type":"assetType","eid":"assetType:5d6e0287ee35880008c18db5","name":"Compounds","digest":"83356657","fields":{}}},{"type":"user","id":"114","links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114"},"attributes":{"userId":"114","userName":"timo.kangasperko@orion.fi","flags":{"isSystemStandardUser":true},"alias":"timoka","email":"timo.kangasperko@orion.fi","firstName":"Timo","lastName":"Kangasperko","isEnabled":true},"relationships":{"systemGroups":{"links":{"self":"https://orionsandbox.signalsresearch.revvitycloud.eu/api/rest/v1.0/users/114/systemGroups"}}}}]}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
